--- a/Example.xlsx
+++ b/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galushko\Documents\Home\ist_teacher_workload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2BB8A9-236D-4D02-8446-53703D1C8AE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04930483-DB1D-41F5-B9F3-72E9BAF120DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="7070" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1824,35 +1824,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1884,35 +1884,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1923,74 +1959,17 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2010,10 +1989,79 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2034,164 +2082,32 @@
     <xf numFmtId="49" fontId="28" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2232,23 +2148,107 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2257,28 +2257,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2305,10 +2305,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6151,48 +6151,48 @@
       <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
     </row>
     <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="141"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
@@ -6213,10 +6213,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="142"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -6225,10 +6225,10 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="142"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6237,10 +6237,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="143"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
@@ -6259,55 +6259,55 @@
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
     </row>
     <row r="11" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
     </row>
     <row r="12" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
     </row>
     <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -6456,12 +6456,12 @@
       <c r="B24" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
     </row>
     <row r="25" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
@@ -6479,63 +6479,63 @@
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="122"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="142"/>
     </row>
     <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="125"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="145"/>
     </row>
     <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="125"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="145"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="128"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="148"/>
     </row>
     <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
@@ -6565,17 +6565,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
@@ -6588,11 +6582,17 @@
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
@@ -6626,16 +6626,16 @@
       <c r="B2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="153"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="156"/>
       <c r="K2" s="44"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
@@ -6645,16 +6645,16 @@
       <c r="B3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="155"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="164"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -6664,16 +6664,16 @@
       <c r="B4" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="155"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="164"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -6683,16 +6683,16 @@
       <c r="B5" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="158"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
@@ -6701,17 +6701,17 @@
       <c r="A6" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="163"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
@@ -6720,17 +6720,17 @@
       <c r="A7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="44"/>
@@ -6739,17 +6739,17 @@
       <c r="A8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="156"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
@@ -6757,33 +6757,33 @@
     <row r="9" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
@@ -6792,17 +6792,17 @@
       <c r="A11" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
@@ -6812,17 +6812,17 @@
       <c r="A12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
@@ -6831,17 +6831,17 @@
       <c r="A13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -6850,17 +6850,17 @@
       <c r="A14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -6869,17 +6869,17 @@
       <c r="A15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="150" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -6888,17 +6888,17 @@
       <c r="A16" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -6907,17 +6907,17 @@
       <c r="A17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -6926,17 +6926,17 @@
       <c r="A18" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -6945,17 +6945,17 @@
       <c r="A19" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -6964,17 +6964,17 @@
       <c r="A20" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -6983,17 +6983,17 @@
       <c r="A21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -7002,34 +7002,34 @@
       <c r="A22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="162" t="s">
+      <c r="B22" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="150"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
     </row>
     <row r="23" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -7038,17 +7038,17 @@
       <c r="A24" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -7057,17 +7057,17 @@
       <c r="A25" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -7076,17 +7076,17 @@
       <c r="A26" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -7095,17 +7095,17 @@
       <c r="A27" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
@@ -7114,17 +7114,17 @@
       <c r="A28" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="162" t="s">
+      <c r="B28" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
@@ -7133,17 +7133,17 @@
       <c r="A29" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="162"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
@@ -7165,17 +7165,17 @@
     </row>
     <row r="31" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
-      <c r="B31" s="154" t="s">
+      <c r="B31" s="149" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="154"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -7686,17 +7686,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="C9:J9"/>
@@ -7709,12 +7704,17 @@
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B29:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
@@ -7867,23 +7867,23 @@
     </row>
     <row r="2" spans="1:72" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="70"/>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
       <c r="Q2" s="70"/>
       <c r="R2" s="70"/>
       <c r="S2" s="68"/>
@@ -7942,532 +7942,532 @@
       <c r="BT2" s="67"/>
     </row>
     <row r="3" spans="1:72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="194" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="198" t="s">
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="R3" s="198"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="165" t="s">
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="AH3" s="165" t="s">
+      <c r="AH3" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="AI3" s="165" t="s">
+      <c r="AI3" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="165" t="s">
+      <c r="AJ3" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" s="198" t="s">
+      <c r="AK3" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="AL3" s="198"/>
-      <c r="AM3" s="198"/>
-      <c r="AN3" s="198"/>
-      <c r="AO3" s="198"/>
-      <c r="AP3" s="198"/>
-      <c r="AQ3" s="198"/>
-      <c r="AR3" s="198"/>
-      <c r="AS3" s="198"/>
-      <c r="AT3" s="198"/>
-      <c r="AU3" s="198"/>
-      <c r="AV3" s="198"/>
-      <c r="AW3" s="198"/>
-      <c r="AX3" s="198"/>
-      <c r="AY3" s="198"/>
-      <c r="AZ3" s="198"/>
-      <c r="BA3" s="198" t="s">
+      <c r="AL3" s="176"/>
+      <c r="AM3" s="176"/>
+      <c r="AN3" s="176"/>
+      <c r="AO3" s="176"/>
+      <c r="AP3" s="176"/>
+      <c r="AQ3" s="176"/>
+      <c r="AR3" s="176"/>
+      <c r="AS3" s="176"/>
+      <c r="AT3" s="176"/>
+      <c r="AU3" s="176"/>
+      <c r="AV3" s="176"/>
+      <c r="AW3" s="176"/>
+      <c r="AX3" s="176"/>
+      <c r="AY3" s="176"/>
+      <c r="AZ3" s="176"/>
+      <c r="BA3" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="BB3" s="198"/>
-      <c r="BC3" s="198"/>
-      <c r="BD3" s="198"/>
-      <c r="BE3" s="198"/>
-      <c r="BF3" s="198"/>
-      <c r="BG3" s="198"/>
-      <c r="BH3" s="198"/>
-      <c r="BI3" s="198"/>
-      <c r="BJ3" s="198"/>
-      <c r="BK3" s="198"/>
-      <c r="BL3" s="198"/>
-      <c r="BM3" s="198"/>
-      <c r="BN3" s="198"/>
-      <c r="BO3" s="198"/>
-      <c r="BP3" s="198"/>
-      <c r="BQ3" s="198"/>
-      <c r="BR3" s="198"/>
-      <c r="BS3" s="198"/>
-      <c r="BT3" s="198"/>
+      <c r="BB3" s="176"/>
+      <c r="BC3" s="176"/>
+      <c r="BD3" s="176"/>
+      <c r="BE3" s="176"/>
+      <c r="BF3" s="176"/>
+      <c r="BG3" s="176"/>
+      <c r="BH3" s="176"/>
+      <c r="BI3" s="176"/>
+      <c r="BJ3" s="176"/>
+      <c r="BK3" s="176"/>
+      <c r="BL3" s="176"/>
+      <c r="BM3" s="176"/>
+      <c r="BN3" s="176"/>
+      <c r="BO3" s="176"/>
+      <c r="BP3" s="176"/>
+      <c r="BQ3" s="176"/>
+      <c r="BR3" s="176"/>
+      <c r="BS3" s="176"/>
+      <c r="BT3" s="176"/>
     </row>
     <row r="4" spans="1:72" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="170" t="s">
+      <c r="A4" s="167"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="170" t="s">
+      <c r="E4" s="206" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="171" t="s">
+      <c r="F4" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="165" t="s">
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="171" t="s">
+      <c r="M4" s="207" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="171"/>
-      <c r="O4" s="170" t="s">
+      <c r="N4" s="207"/>
+      <c r="O4" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="170" t="s">
+      <c r="P4" s="206" t="s">
         <v>104</v>
       </c>
-      <c r="Q4" s="198" t="s">
+      <c r="Q4" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="198"/>
-      <c r="U4" s="198"/>
-      <c r="V4" s="198"/>
-      <c r="W4" s="198"/>
-      <c r="X4" s="198"/>
-      <c r="Y4" s="198"/>
-      <c r="Z4" s="198"/>
-      <c r="AA4" s="198"/>
-      <c r="AB4" s="198"/>
-      <c r="AC4" s="165" t="s">
+      <c r="R4" s="176"/>
+      <c r="S4" s="176"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="176"/>
+      <c r="AA4" s="176"/>
+      <c r="AB4" s="176"/>
+      <c r="AC4" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="AD4" s="165"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="165"/>
-      <c r="AG4" s="165"/>
-      <c r="AH4" s="165"/>
-      <c r="AI4" s="165"/>
-      <c r="AJ4" s="165"/>
-      <c r="AK4" s="198" t="s">
+      <c r="AD4" s="167"/>
+      <c r="AE4" s="167"/>
+      <c r="AF4" s="167"/>
+      <c r="AG4" s="167"/>
+      <c r="AH4" s="167"/>
+      <c r="AI4" s="167"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="AL4" s="198"/>
-      <c r="AM4" s="198"/>
-      <c r="AN4" s="198"/>
-      <c r="AO4" s="198"/>
-      <c r="AP4" s="198"/>
-      <c r="AQ4" s="198"/>
-      <c r="AR4" s="198"/>
-      <c r="AS4" s="198"/>
-      <c r="AT4" s="198"/>
-      <c r="AU4" s="198"/>
-      <c r="AV4" s="198"/>
-      <c r="AW4" s="198"/>
-      <c r="AX4" s="198"/>
-      <c r="AY4" s="198"/>
-      <c r="AZ4" s="198"/>
-      <c r="BA4" s="198" t="s">
+      <c r="AL4" s="176"/>
+      <c r="AM4" s="176"/>
+      <c r="AN4" s="176"/>
+      <c r="AO4" s="176"/>
+      <c r="AP4" s="176"/>
+      <c r="AQ4" s="176"/>
+      <c r="AR4" s="176"/>
+      <c r="AS4" s="176"/>
+      <c r="AT4" s="176"/>
+      <c r="AU4" s="176"/>
+      <c r="AV4" s="176"/>
+      <c r="AW4" s="176"/>
+      <c r="AX4" s="176"/>
+      <c r="AY4" s="176"/>
+      <c r="AZ4" s="176"/>
+      <c r="BA4" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="BB4" s="198"/>
-      <c r="BC4" s="198"/>
-      <c r="BD4" s="198"/>
-      <c r="BE4" s="198"/>
-      <c r="BF4" s="198"/>
-      <c r="BG4" s="198"/>
-      <c r="BH4" s="198"/>
-      <c r="BI4" s="198"/>
-      <c r="BJ4" s="198"/>
-      <c r="BK4" s="198"/>
-      <c r="BL4" s="198"/>
-      <c r="BM4" s="198"/>
-      <c r="BN4" s="198"/>
-      <c r="BO4" s="198"/>
-      <c r="BP4" s="198"/>
-      <c r="BQ4" s="198"/>
-      <c r="BR4" s="198"/>
-      <c r="BS4" s="198"/>
-      <c r="BT4" s="198"/>
+      <c r="BB4" s="176"/>
+      <c r="BC4" s="176"/>
+      <c r="BD4" s="176"/>
+      <c r="BE4" s="176"/>
+      <c r="BF4" s="176"/>
+      <c r="BG4" s="176"/>
+      <c r="BH4" s="176"/>
+      <c r="BI4" s="176"/>
+      <c r="BJ4" s="176"/>
+      <c r="BK4" s="176"/>
+      <c r="BL4" s="176"/>
+      <c r="BM4" s="176"/>
+      <c r="BN4" s="176"/>
+      <c r="BO4" s="176"/>
+      <c r="BP4" s="176"/>
+      <c r="BQ4" s="176"/>
+      <c r="BR4" s="176"/>
+      <c r="BS4" s="176"/>
+      <c r="BT4" s="176"/>
     </row>
     <row r="5" spans="1:72" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="172" t="s">
+      <c r="A5" s="167"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="208" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="186" t="s">
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="202" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="175" t="s">
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="168" t="s">
         <v>112</v>
       </c>
-      <c r="R5" s="176"/>
-      <c r="S5" s="176"/>
-      <c r="T5" s="177"/>
-      <c r="U5" s="165" t="s">
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="170"/>
+      <c r="U5" s="167" t="s">
         <v>115</v>
       </c>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165" t="s">
+      <c r="V5" s="167"/>
+      <c r="W5" s="167"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165" t="s">
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="167"/>
+      <c r="AB5" s="167"/>
+      <c r="AC5" s="167"/>
+      <c r="AD5" s="167"/>
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="167"/>
+      <c r="AG5" s="167"/>
+      <c r="AH5" s="167"/>
+      <c r="AI5" s="167"/>
+      <c r="AJ5" s="167"/>
+      <c r="AK5" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165" t="s">
+      <c r="AL5" s="167"/>
+      <c r="AM5" s="167"/>
+      <c r="AN5" s="167"/>
+      <c r="AO5" s="167" t="s">
         <v>138</v>
       </c>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="165"/>
-      <c r="AR5" s="165"/>
-      <c r="AS5" s="165" t="s">
+      <c r="AP5" s="167"/>
+      <c r="AQ5" s="167"/>
+      <c r="AR5" s="167"/>
+      <c r="AS5" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="AT5" s="165"/>
-      <c r="AU5" s="165"/>
-      <c r="AV5" s="165"/>
-      <c r="AW5" s="175" t="s">
+      <c r="AT5" s="167"/>
+      <c r="AU5" s="167"/>
+      <c r="AV5" s="167"/>
+      <c r="AW5" s="168" t="s">
         <v>140</v>
       </c>
-      <c r="AX5" s="176"/>
-      <c r="AY5" s="176"/>
-      <c r="AZ5" s="177"/>
-      <c r="BA5" s="165" t="s">
+      <c r="AX5" s="169"/>
+      <c r="AY5" s="169"/>
+      <c r="AZ5" s="170"/>
+      <c r="BA5" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="BB5" s="165"/>
-      <c r="BC5" s="165"/>
-      <c r="BD5" s="165"/>
-      <c r="BE5" s="165" t="s">
+      <c r="BB5" s="167"/>
+      <c r="BC5" s="167"/>
+      <c r="BD5" s="167"/>
+      <c r="BE5" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="BF5" s="165"/>
-      <c r="BG5" s="165"/>
-      <c r="BH5" s="165"/>
-      <c r="BI5" s="165" t="s">
+      <c r="BF5" s="167"/>
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="167"/>
+      <c r="BI5" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="BJ5" s="165"/>
-      <c r="BK5" s="165"/>
-      <c r="BL5" s="165"/>
-      <c r="BM5" s="165" t="s">
+      <c r="BJ5" s="167"/>
+      <c r="BK5" s="167"/>
+      <c r="BL5" s="167"/>
+      <c r="BM5" s="167" t="s">
         <v>144</v>
       </c>
-      <c r="BN5" s="165"/>
-      <c r="BO5" s="165"/>
-      <c r="BP5" s="201"/>
-      <c r="BQ5" s="202" t="s">
+      <c r="BN5" s="167"/>
+      <c r="BO5" s="167"/>
+      <c r="BP5" s="174"/>
+      <c r="BQ5" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="BR5" s="165"/>
-      <c r="BS5" s="165"/>
-      <c r="BT5" s="165"/>
+      <c r="BR5" s="167"/>
+      <c r="BS5" s="167"/>
+      <c r="BT5" s="167"/>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="166" t="s">
+      <c r="A6" s="167"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="194" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="166" t="s">
+      <c r="H6" s="194" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="166" t="s">
+      <c r="I6" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="166" t="s">
+      <c r="J6" s="194" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="166" t="s">
+      <c r="K6" s="194" t="s">
         <v>116</v>
       </c>
-      <c r="L6" s="165"/>
-      <c r="M6" s="166" t="s">
+      <c r="L6" s="167"/>
+      <c r="M6" s="194" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="166" t="s">
+      <c r="N6" s="194" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="170"/>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="178"/>
-      <c r="R6" s="179"/>
-      <c r="S6" s="179"/>
-      <c r="T6" s="180"/>
-      <c r="U6" s="165"/>
-      <c r="V6" s="165"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="165"/>
-      <c r="Y6" s="165"/>
-      <c r="Z6" s="165"/>
-      <c r="AA6" s="165"/>
-      <c r="AB6" s="165"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="165"/>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
-      <c r="AH6" s="165"/>
-      <c r="AI6" s="165"/>
-      <c r="AJ6" s="165"/>
-      <c r="AK6" s="165"/>
-      <c r="AL6" s="165"/>
-      <c r="AM6" s="165"/>
-      <c r="AN6" s="165"/>
-      <c r="AO6" s="165"/>
-      <c r="AP6" s="165"/>
-      <c r="AQ6" s="165"/>
-      <c r="AR6" s="165"/>
-      <c r="AS6" s="165"/>
-      <c r="AT6" s="165"/>
-      <c r="AU6" s="165"/>
-      <c r="AV6" s="165"/>
-      <c r="AW6" s="178"/>
-      <c r="AX6" s="179"/>
-      <c r="AY6" s="179"/>
-      <c r="AZ6" s="180"/>
-      <c r="BA6" s="165"/>
-      <c r="BB6" s="165"/>
-      <c r="BC6" s="165"/>
-      <c r="BD6" s="165"/>
-      <c r="BE6" s="165"/>
-      <c r="BF6" s="165"/>
-      <c r="BG6" s="165"/>
-      <c r="BH6" s="165"/>
-      <c r="BI6" s="165"/>
-      <c r="BJ6" s="165"/>
-      <c r="BK6" s="165"/>
-      <c r="BL6" s="165"/>
-      <c r="BM6" s="165"/>
-      <c r="BN6" s="165"/>
-      <c r="BO6" s="165"/>
-      <c r="BP6" s="201"/>
-      <c r="BQ6" s="202"/>
-      <c r="BR6" s="165"/>
-      <c r="BS6" s="165"/>
-      <c r="BT6" s="165"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
+      <c r="Q6" s="171"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="167"/>
+      <c r="AC6" s="167"/>
+      <c r="AD6" s="167"/>
+      <c r="AE6" s="167"/>
+      <c r="AF6" s="167"/>
+      <c r="AG6" s="167"/>
+      <c r="AH6" s="167"/>
+      <c r="AI6" s="167"/>
+      <c r="AJ6" s="167"/>
+      <c r="AK6" s="167"/>
+      <c r="AL6" s="167"/>
+      <c r="AM6" s="167"/>
+      <c r="AN6" s="167"/>
+      <c r="AO6" s="167"/>
+      <c r="AP6" s="167"/>
+      <c r="AQ6" s="167"/>
+      <c r="AR6" s="167"/>
+      <c r="AS6" s="167"/>
+      <c r="AT6" s="167"/>
+      <c r="AU6" s="167"/>
+      <c r="AV6" s="167"/>
+      <c r="AW6" s="171"/>
+      <c r="AX6" s="172"/>
+      <c r="AY6" s="172"/>
+      <c r="AZ6" s="173"/>
+      <c r="BA6" s="167"/>
+      <c r="BB6" s="167"/>
+      <c r="BC6" s="167"/>
+      <c r="BD6" s="167"/>
+      <c r="BE6" s="167"/>
+      <c r="BF6" s="167"/>
+      <c r="BG6" s="167"/>
+      <c r="BH6" s="167"/>
+      <c r="BI6" s="167"/>
+      <c r="BJ6" s="167"/>
+      <c r="BK6" s="167"/>
+      <c r="BL6" s="167"/>
+      <c r="BM6" s="167"/>
+      <c r="BN6" s="167"/>
+      <c r="BO6" s="167"/>
+      <c r="BP6" s="174"/>
+      <c r="BQ6" s="175"/>
+      <c r="BR6" s="167"/>
+      <c r="BS6" s="167"/>
+      <c r="BT6" s="167"/>
     </row>
     <row r="7" spans="1:72" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="165"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="189" t="s">
+      <c r="A7" s="167"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="206"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="206"/>
+      <c r="Q7" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="R7" s="190"/>
-      <c r="S7" s="189" t="s">
+      <c r="R7" s="166"/>
+      <c r="S7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="190"/>
-      <c r="U7" s="189" t="s">
+      <c r="T7" s="166"/>
+      <c r="U7" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="V7" s="190"/>
-      <c r="W7" s="189" t="s">
+      <c r="V7" s="166"/>
+      <c r="W7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="X7" s="190"/>
-      <c r="Y7" s="189" t="s">
+      <c r="X7" s="166"/>
+      <c r="Y7" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" s="190"/>
-      <c r="AA7" s="189" t="s">
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="AB7" s="190"/>
-      <c r="AC7" s="189" t="s">
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="AD7" s="190"/>
-      <c r="AE7" s="189" t="s">
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="AF7" s="190"/>
-      <c r="AG7" s="165"/>
-      <c r="AH7" s="165"/>
-      <c r="AI7" s="165"/>
-      <c r="AJ7" s="165"/>
-      <c r="AK7" s="189" t="s">
+      <c r="AF7" s="166"/>
+      <c r="AG7" s="167"/>
+      <c r="AH7" s="167"/>
+      <c r="AI7" s="167"/>
+      <c r="AJ7" s="167"/>
+      <c r="AK7" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="AL7" s="190"/>
-      <c r="AM7" s="189" t="s">
+      <c r="AL7" s="166"/>
+      <c r="AM7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="AN7" s="190"/>
-      <c r="AO7" s="189" t="s">
+      <c r="AN7" s="166"/>
+      <c r="AO7" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="AP7" s="190"/>
-      <c r="AQ7" s="189" t="s">
+      <c r="AP7" s="166"/>
+      <c r="AQ7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="AR7" s="190"/>
-      <c r="AS7" s="189" t="s">
+      <c r="AR7" s="166"/>
+      <c r="AS7" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="AT7" s="190"/>
-      <c r="AU7" s="189" t="s">
+      <c r="AT7" s="166"/>
+      <c r="AU7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="AV7" s="190"/>
-      <c r="AW7" s="189" t="s">
+      <c r="AV7" s="166"/>
+      <c r="AW7" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="AX7" s="190"/>
-      <c r="AY7" s="189" t="s">
+      <c r="AX7" s="166"/>
+      <c r="AY7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="AZ7" s="190"/>
-      <c r="BA7" s="189" t="s">
+      <c r="AZ7" s="166"/>
+      <c r="BA7" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="BB7" s="190"/>
-      <c r="BC7" s="189" t="s">
+      <c r="BB7" s="166"/>
+      <c r="BC7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="BD7" s="190"/>
-      <c r="BE7" s="189" t="s">
+      <c r="BD7" s="166"/>
+      <c r="BE7" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="BF7" s="190"/>
-      <c r="BG7" s="189" t="s">
+      <c r="BF7" s="166"/>
+      <c r="BG7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="BH7" s="190"/>
-      <c r="BI7" s="189" t="s">
+      <c r="BH7" s="166"/>
+      <c r="BI7" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="BJ7" s="190"/>
-      <c r="BK7" s="189" t="s">
+      <c r="BJ7" s="166"/>
+      <c r="BK7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="BL7" s="190"/>
-      <c r="BM7" s="189" t="s">
+      <c r="BL7" s="166"/>
+      <c r="BM7" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="BN7" s="190"/>
-      <c r="BO7" s="189" t="s">
+      <c r="BN7" s="166"/>
+      <c r="BO7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="BP7" s="207"/>
-      <c r="BQ7" s="208" t="s">
+      <c r="BP7" s="183"/>
+      <c r="BQ7" s="184" t="s">
         <v>101</v>
       </c>
-      <c r="BR7" s="190"/>
-      <c r="BS7" s="189" t="s">
+      <c r="BR7" s="166"/>
+      <c r="BS7" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="BT7" s="190"/>
+      <c r="BT7" s="166"/>
     </row>
     <row r="8" spans="1:72" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="165"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="206"/>
       <c r="Q8" s="74" t="s">
         <v>113</v>
       </c>
@@ -8516,10 +8516,10 @@
       <c r="AF8" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="165"/>
-      <c r="AJ8" s="165"/>
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="167"/>
+      <c r="AI8" s="167"/>
+      <c r="AJ8" s="167"/>
       <c r="AK8" s="74" t="s">
         <v>113</v>
       </c>
@@ -8678,114 +8678,114 @@
       <c r="P9" s="74">
         <v>16</v>
       </c>
-      <c r="Q9" s="173">
+      <c r="Q9" s="181">
         <v>17</v>
       </c>
-      <c r="R9" s="174"/>
-      <c r="S9" s="173">
+      <c r="R9" s="178"/>
+      <c r="S9" s="181">
         <v>18</v>
       </c>
-      <c r="T9" s="174"/>
-      <c r="U9" s="173">
+      <c r="T9" s="178"/>
+      <c r="U9" s="181">
         <v>19</v>
       </c>
-      <c r="V9" s="174"/>
-      <c r="W9" s="173">
+      <c r="V9" s="178"/>
+      <c r="W9" s="181">
         <v>20</v>
       </c>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="173">
+      <c r="X9" s="178"/>
+      <c r="Y9" s="181">
         <v>21</v>
       </c>
-      <c r="Z9" s="174"/>
-      <c r="AA9" s="173">
+      <c r="Z9" s="178"/>
+      <c r="AA9" s="181">
         <v>22</v>
       </c>
-      <c r="AB9" s="174"/>
-      <c r="AC9" s="173">
+      <c r="AB9" s="178"/>
+      <c r="AC9" s="181">
         <v>23</v>
       </c>
-      <c r="AD9" s="174"/>
-      <c r="AE9" s="173">
+      <c r="AD9" s="178"/>
+      <c r="AE9" s="181">
         <v>24</v>
       </c>
-      <c r="AF9" s="174"/>
+      <c r="AF9" s="178"/>
       <c r="AG9" s="74"/>
       <c r="AH9" s="74"/>
       <c r="AI9" s="74"/>
       <c r="AJ9" s="74"/>
-      <c r="AK9" s="173">
+      <c r="AK9" s="181">
         <v>25</v>
       </c>
-      <c r="AL9" s="174"/>
-      <c r="AM9" s="173">
+      <c r="AL9" s="178"/>
+      <c r="AM9" s="181">
         <v>26</v>
       </c>
-      <c r="AN9" s="174"/>
-      <c r="AO9" s="173">
+      <c r="AN9" s="178"/>
+      <c r="AO9" s="181">
         <v>27</v>
       </c>
-      <c r="AP9" s="174"/>
-      <c r="AQ9" s="173">
+      <c r="AP9" s="178"/>
+      <c r="AQ9" s="181">
         <v>28</v>
       </c>
-      <c r="AR9" s="174"/>
-      <c r="AS9" s="173">
+      <c r="AR9" s="178"/>
+      <c r="AS9" s="181">
         <v>29</v>
       </c>
-      <c r="AT9" s="174"/>
-      <c r="AU9" s="173">
+      <c r="AT9" s="178"/>
+      <c r="AU9" s="181">
         <v>30</v>
       </c>
-      <c r="AV9" s="174"/>
-      <c r="AW9" s="173">
+      <c r="AV9" s="178"/>
+      <c r="AW9" s="181">
         <v>31</v>
       </c>
-      <c r="AX9" s="174"/>
-      <c r="AY9" s="173">
+      <c r="AX9" s="178"/>
+      <c r="AY9" s="181">
         <v>32</v>
       </c>
-      <c r="AZ9" s="174"/>
-      <c r="BA9" s="173">
+      <c r="AZ9" s="178"/>
+      <c r="BA9" s="181">
         <v>33</v>
       </c>
-      <c r="BB9" s="174"/>
-      <c r="BC9" s="173">
+      <c r="BB9" s="178"/>
+      <c r="BC9" s="181">
         <v>34</v>
       </c>
-      <c r="BD9" s="174"/>
-      <c r="BE9" s="173">
+      <c r="BD9" s="178"/>
+      <c r="BE9" s="181">
         <v>35</v>
       </c>
-      <c r="BF9" s="174"/>
-      <c r="BG9" s="173">
+      <c r="BF9" s="178"/>
+      <c r="BG9" s="181">
         <v>36</v>
       </c>
-      <c r="BH9" s="174"/>
-      <c r="BI9" s="173">
+      <c r="BH9" s="178"/>
+      <c r="BI9" s="181">
         <v>37</v>
       </c>
-      <c r="BJ9" s="174"/>
-      <c r="BK9" s="173">
+      <c r="BJ9" s="178"/>
+      <c r="BK9" s="181">
         <v>38</v>
       </c>
-      <c r="BL9" s="174"/>
-      <c r="BM9" s="173">
+      <c r="BL9" s="178"/>
+      <c r="BM9" s="181">
         <v>39</v>
       </c>
-      <c r="BN9" s="174"/>
-      <c r="BO9" s="173">
+      <c r="BN9" s="178"/>
+      <c r="BO9" s="181">
         <v>40</v>
       </c>
-      <c r="BP9" s="206"/>
-      <c r="BQ9" s="203">
+      <c r="BP9" s="182"/>
+      <c r="BQ9" s="177">
         <v>41</v>
       </c>
-      <c r="BR9" s="174"/>
-      <c r="BS9" s="204">
+      <c r="BR9" s="178"/>
+      <c r="BS9" s="179">
         <v>42</v>
       </c>
-      <c r="BT9" s="205"/>
+      <c r="BT9" s="180"/>
     </row>
     <row r="10" spans="1:72" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
@@ -11713,25 +11713,25 @@
     </row>
     <row r="27" spans="1:72" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="96"/>
-      <c r="B27" s="199" t="s">
+      <c r="B27" s="197" t="s">
         <v>105</v>
       </c>
       <c r="C27" s="97"/>
-      <c r="D27" s="183" t="s">
+      <c r="D27" s="199" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="184"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="200"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="200"/>
+      <c r="N27" s="200"/>
+      <c r="O27" s="200"/>
+      <c r="P27" s="200"/>
       <c r="Q27" s="98">
         <f>SUM(Q10:Q26)</f>
         <v>0</v>
@@ -11773,11 +11773,11 @@
       <c r="AE27" s="98"/>
       <c r="AF27" s="98"/>
       <c r="AG27" s="99"/>
-      <c r="AH27" s="191" t="s">
+      <c r="AH27" s="185" t="s">
         <v>105</v>
       </c>
       <c r="AI27" s="97"/>
-      <c r="AJ27" s="191" t="s">
+      <c r="AJ27" s="185" t="s">
         <v>105</v>
       </c>
       <c r="AK27" s="98">
@@ -11873,23 +11873,23 @@
     </row>
     <row r="28" spans="1:72" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="103"/>
-      <c r="B28" s="200"/>
+      <c r="B28" s="198"/>
       <c r="C28" s="104"/>
-      <c r="D28" s="185" t="s">
+      <c r="D28" s="201" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="185"/>
-      <c r="L28" s="185"/>
-      <c r="M28" s="185"/>
-      <c r="N28" s="185"/>
-      <c r="O28" s="185"/>
-      <c r="P28" s="185"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="201"/>
+      <c r="N28" s="201"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="201"/>
       <c r="Q28" s="98"/>
       <c r="R28" s="98"/>
       <c r="S28" s="98">
@@ -11931,9 +11931,9 @@
         <v>0</v>
       </c>
       <c r="AG28" s="105"/>
-      <c r="AH28" s="192"/>
+      <c r="AH28" s="186"/>
       <c r="AI28" s="106"/>
-      <c r="AJ28" s="192"/>
+      <c r="AJ28" s="186"/>
       <c r="AK28" s="98"/>
       <c r="AL28" s="98"/>
       <c r="AM28" s="98">
@@ -14951,25 +14951,25 @@
     </row>
     <row r="46" spans="1:72" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="96"/>
-      <c r="B46" s="187" t="s">
+      <c r="B46" s="203" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="97"/>
-      <c r="D46" s="183" t="s">
+      <c r="D46" s="199" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="184"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="184"/>
-      <c r="H46" s="184"/>
-      <c r="I46" s="184"/>
-      <c r="J46" s="184"/>
-      <c r="K46" s="184"/>
-      <c r="L46" s="184"/>
-      <c r="M46" s="184"/>
-      <c r="N46" s="184"/>
-      <c r="O46" s="184"/>
-      <c r="P46" s="184"/>
+      <c r="E46" s="200"/>
+      <c r="F46" s="200"/>
+      <c r="G46" s="200"/>
+      <c r="H46" s="200"/>
+      <c r="I46" s="200"/>
+      <c r="J46" s="200"/>
+      <c r="K46" s="200"/>
+      <c r="L46" s="200"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="200"/>
+      <c r="O46" s="200"/>
+      <c r="P46" s="200"/>
       <c r="Q46" s="98">
         <f>SUM(Q29:Q45)</f>
         <v>0</v>
@@ -15011,11 +15011,11 @@
       <c r="AE46" s="98"/>
       <c r="AF46" s="98"/>
       <c r="AG46" s="97"/>
-      <c r="AH46" s="193" t="s">
+      <c r="AH46" s="189" t="s">
         <v>107</v>
       </c>
       <c r="AI46" s="97"/>
-      <c r="AJ46" s="181" t="s">
+      <c r="AJ46" s="187" t="s">
         <v>107</v>
       </c>
       <c r="AK46" s="98">
@@ -15111,23 +15111,23 @@
     </row>
     <row r="47" spans="1:72" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="103"/>
-      <c r="B47" s="188"/>
+      <c r="B47" s="204"/>
       <c r="C47" s="104"/>
-      <c r="D47" s="185" t="s">
+      <c r="D47" s="201" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="185"/>
-      <c r="F47" s="185"/>
-      <c r="G47" s="185"/>
-      <c r="H47" s="185"/>
-      <c r="I47" s="185"/>
-      <c r="J47" s="185"/>
-      <c r="K47" s="185"/>
-      <c r="L47" s="185"/>
-      <c r="M47" s="185"/>
-      <c r="N47" s="185"/>
-      <c r="O47" s="185"/>
-      <c r="P47" s="185"/>
+      <c r="E47" s="201"/>
+      <c r="F47" s="201"/>
+      <c r="G47" s="201"/>
+      <c r="H47" s="201"/>
+      <c r="I47" s="201"/>
+      <c r="J47" s="201"/>
+      <c r="K47" s="201"/>
+      <c r="L47" s="201"/>
+      <c r="M47" s="201"/>
+      <c r="N47" s="201"/>
+      <c r="O47" s="201"/>
+      <c r="P47" s="201"/>
       <c r="Q47" s="98"/>
       <c r="R47" s="98"/>
       <c r="S47" s="98">
@@ -15169,9 +15169,9 @@
         <v>0</v>
       </c>
       <c r="AG47" s="106"/>
-      <c r="AH47" s="194"/>
+      <c r="AH47" s="190"/>
       <c r="AI47" s="106"/>
-      <c r="AJ47" s="182"/>
+      <c r="AJ47" s="188"/>
       <c r="AK47" s="98"/>
       <c r="AL47" s="98"/>
       <c r="AM47" s="98">
@@ -15265,25 +15265,25 @@
     </row>
     <row r="48" spans="1:72" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="99"/>
-      <c r="B48" s="181" t="s">
+      <c r="B48" s="187" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="97"/>
-      <c r="D48" s="183" t="s">
+      <c r="D48" s="199" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="184"/>
-      <c r="F48" s="184"/>
-      <c r="G48" s="184"/>
-      <c r="H48" s="184"/>
-      <c r="I48" s="184"/>
-      <c r="J48" s="184"/>
-      <c r="K48" s="184"/>
-      <c r="L48" s="184"/>
-      <c r="M48" s="184"/>
-      <c r="N48" s="184"/>
-      <c r="O48" s="184"/>
-      <c r="P48" s="184"/>
+      <c r="E48" s="200"/>
+      <c r="F48" s="200"/>
+      <c r="G48" s="200"/>
+      <c r="H48" s="200"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="200"/>
+      <c r="K48" s="200"/>
+      <c r="L48" s="200"/>
+      <c r="M48" s="200"/>
+      <c r="N48" s="200"/>
+      <c r="O48" s="200"/>
+      <c r="P48" s="200"/>
       <c r="Q48" s="98">
         <f>Q27+Q46</f>
         <v>0</v>
@@ -15325,11 +15325,11 @@
       <c r="AE48" s="98"/>
       <c r="AF48" s="98"/>
       <c r="AG48" s="106"/>
-      <c r="AH48" s="195" t="s">
+      <c r="AH48" s="191" t="s">
         <v>108</v>
       </c>
       <c r="AI48" s="106"/>
-      <c r="AJ48" s="181" t="s">
+      <c r="AJ48" s="187" t="s">
         <v>108</v>
       </c>
       <c r="AK48" s="98">
@@ -15425,23 +15425,23 @@
     </row>
     <row r="49" spans="1:72" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="105"/>
-      <c r="B49" s="182"/>
+      <c r="B49" s="188"/>
       <c r="C49" s="104"/>
-      <c r="D49" s="185" t="s">
+      <c r="D49" s="201" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="185"/>
-      <c r="F49" s="185"/>
-      <c r="G49" s="185"/>
-      <c r="H49" s="185"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="185"/>
-      <c r="K49" s="185"/>
-      <c r="L49" s="185"/>
-      <c r="M49" s="185"/>
-      <c r="N49" s="185"/>
-      <c r="O49" s="185"/>
-      <c r="P49" s="185"/>
+      <c r="E49" s="201"/>
+      <c r="F49" s="201"/>
+      <c r="G49" s="201"/>
+      <c r="H49" s="201"/>
+      <c r="I49" s="201"/>
+      <c r="J49" s="201"/>
+      <c r="K49" s="201"/>
+      <c r="L49" s="201"/>
+      <c r="M49" s="201"/>
+      <c r="N49" s="201"/>
+      <c r="O49" s="201"/>
+      <c r="P49" s="201"/>
       <c r="Q49" s="98"/>
       <c r="R49" s="98"/>
       <c r="S49" s="98">
@@ -15483,9 +15483,9 @@
         <v>0</v>
       </c>
       <c r="AG49" s="106"/>
-      <c r="AH49" s="196"/>
+      <c r="AH49" s="192"/>
       <c r="AI49" s="106"/>
-      <c r="AJ49" s="182"/>
+      <c r="AJ49" s="188"/>
       <c r="AK49" s="98"/>
       <c r="AL49" s="98"/>
       <c r="AM49" s="98">
@@ -18463,58 +18463,42 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AI3:AI8"/>
-    <mergeCell ref="AJ3:AJ8"/>
-    <mergeCell ref="AW5:AZ6"/>
-    <mergeCell ref="BM5:BP6"/>
-    <mergeCell ref="BQ5:BT6"/>
-    <mergeCell ref="BA4:BT4"/>
-    <mergeCell ref="BA3:BT3"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BA5:BD6"/>
-    <mergeCell ref="BE5:BH6"/>
-    <mergeCell ref="BI5:BL6"/>
-    <mergeCell ref="BM7:BN7"/>
-    <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="BQ7:BR7"/>
-    <mergeCell ref="BS7:BT7"/>
-    <mergeCell ref="BA7:BB7"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AK4:AZ4"/>
-    <mergeCell ref="AK3:AZ3"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BE9:BF9"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="AK5:AN6"/>
-    <mergeCell ref="AO5:AR6"/>
-    <mergeCell ref="AS5:AV6"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="P4:P8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="Y5:AB6"/>
+    <mergeCell ref="AC4:AF6"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:P48"/>
+    <mergeCell ref="D49:P49"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:P46"/>
+    <mergeCell ref="D47:P47"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
     <mergeCell ref="AJ27:AJ28"/>
     <mergeCell ref="AJ46:AJ47"/>
     <mergeCell ref="AJ48:AJ49"/>
@@ -18539,42 +18523,58 @@
     <mergeCell ref="AC9:AD9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="Y5:AB6"/>
-    <mergeCell ref="AC4:AF6"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:P48"/>
-    <mergeCell ref="D49:P49"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:P46"/>
-    <mergeCell ref="D47:P47"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="P4:P8"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AK4:AZ4"/>
+    <mergeCell ref="AK3:AZ3"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BE9:BF9"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="AK5:AN6"/>
+    <mergeCell ref="AO5:AR6"/>
+    <mergeCell ref="AS5:AV6"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BM5:BP6"/>
+    <mergeCell ref="BQ5:BT6"/>
+    <mergeCell ref="BA4:BT4"/>
+    <mergeCell ref="BA3:BT3"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="BK7:BL7"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BA5:BD6"/>
+    <mergeCell ref="BE5:BH6"/>
+    <mergeCell ref="BI5:BL6"/>
+    <mergeCell ref="BM7:BN7"/>
+    <mergeCell ref="BO7:BP7"/>
+    <mergeCell ref="BQ7:BR7"/>
+    <mergeCell ref="BS7:BT7"/>
+    <mergeCell ref="BA7:BB7"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AI3:AI8"/>
+    <mergeCell ref="AJ3:AJ8"/>
+    <mergeCell ref="AW5:AZ6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -18586,7 +18586,7 @@
   <dimension ref="A1:AI456"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+      <selection activeCell="I21" sqref="I21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -18627,46 +18627,46 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="210" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="209" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="R2" s="209" t="s">
+      <c r="R2" s="210" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="209" t="s">
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="210"/>
+      <c r="AA2" s="210" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="210"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="209"/>
       <c r="AE2" s="25"/>
       <c r="AF2" s="25"/>
       <c r="AG2" s="25"/>
@@ -18674,58 +18674,58 @@
       <c r="AI2" s="25"/>
     </row>
     <row r="3" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="209"/>
-      <c r="B3" s="211" t="s">
+      <c r="A3" s="210"/>
+      <c r="B3" s="233" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="216" t="s">
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="227" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="213" t="s">
+      <c r="G3" s="229"/>
+      <c r="H3" s="251" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="216" t="s">
+      <c r="I3" s="227" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="226"/>
-      <c r="K3" s="215" t="s">
+      <c r="J3" s="229"/>
+      <c r="K3" s="253" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="215"/>
-      <c r="M3" s="209" t="s">
+      <c r="L3" s="253"/>
+      <c r="M3" s="210" t="s">
         <v>152</v>
       </c>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="211" t="s">
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="233" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="213" t="s">
+      <c r="S3" s="251" t="s">
         <v>148</v>
       </c>
-      <c r="T3" s="211" t="s">
+      <c r="T3" s="233" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="215" t="s">
+      <c r="U3" s="253" t="s">
         <v>151</v>
       </c>
-      <c r="V3" s="215"/>
-      <c r="W3" s="209" t="s">
+      <c r="V3" s="253"/>
+      <c r="W3" s="210" t="s">
         <v>152</v>
       </c>
-      <c r="X3" s="210"/>
-      <c r="Y3" s="210"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="210"/>
-      <c r="AD3" s="210"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="209"/>
       <c r="AE3" s="25"/>
       <c r="AF3" s="25"/>
       <c r="AG3" s="25"/>
@@ -18733,56 +18733,56 @@
       <c r="AI3" s="25"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="209"/>
-      <c r="B4" s="212"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="211" t="s">
+      <c r="A4" s="210"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="233" t="s">
         <v>149</v>
       </c>
-      <c r="L4" s="211" t="s">
+      <c r="L4" s="233" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="209" t="s">
+      <c r="M4" s="210" t="s">
         <v>153</v>
       </c>
-      <c r="N4" s="210"/>
-      <c r="O4" s="209" t="s">
+      <c r="N4" s="209"/>
+      <c r="O4" s="210" t="s">
         <v>154</v>
       </c>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="209"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="214"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="211" t="s">
+      <c r="P4" s="209"/>
+      <c r="Q4" s="210"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="252"/>
+      <c r="T4" s="248"/>
+      <c r="U4" s="233" t="s">
         <v>149</v>
       </c>
-      <c r="V4" s="211" t="s">
+      <c r="V4" s="233" t="s">
         <v>150</v>
       </c>
-      <c r="W4" s="209" t="s">
+      <c r="W4" s="210" t="s">
         <v>153</v>
       </c>
-      <c r="X4" s="210"/>
-      <c r="Y4" s="209" t="s">
+      <c r="X4" s="209"/>
+      <c r="Y4" s="210" t="s">
         <v>154</v>
       </c>
-      <c r="Z4" s="210"/>
-      <c r="AA4" s="209" t="s">
+      <c r="Z4" s="209"/>
+      <c r="AA4" s="210" t="s">
         <v>153</v>
       </c>
-      <c r="AB4" s="210"/>
-      <c r="AC4" s="209" t="s">
+      <c r="AB4" s="209"/>
+      <c r="AC4" s="210" t="s">
         <v>154</v>
       </c>
-      <c r="AD4" s="210"/>
+      <c r="AD4" s="209"/>
       <c r="AE4" s="25"/>
       <c r="AF4" s="25"/>
       <c r="AG4" s="25"/>
@@ -18790,18 +18790,18 @@
       <c r="AI4" s="25"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="209"/>
-      <c r="B5" s="212"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="212"/>
-      <c r="L5" s="212"/>
+      <c r="A5" s="210"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="232"/>
+      <c r="K5" s="248"/>
+      <c r="L5" s="248"/>
       <c r="M5" s="31" t="s">
         <v>113</v>
       </c>
@@ -18814,12 +18814,12 @@
       <c r="P5" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Q5" s="209"/>
-      <c r="R5" s="212"/>
-      <c r="S5" s="214"/>
-      <c r="T5" s="212"/>
-      <c r="U5" s="212"/>
-      <c r="V5" s="212"/>
+      <c r="Q5" s="210"/>
+      <c r="R5" s="248"/>
+      <c r="S5" s="252"/>
+      <c r="T5" s="248"/>
+      <c r="U5" s="248"/>
+      <c r="V5" s="248"/>
       <c r="W5" s="31" t="s">
         <v>113</v>
       </c>
@@ -18854,19 +18854,19 @@
       <c r="A6" s="49">
         <v>1</v>
       </c>
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="233" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="238" t="s">
+      <c r="C6" s="248"/>
+      <c r="D6" s="237" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="239"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="225"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="244"/>
       <c r="H6" s="56"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="223"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="246"/>
       <c r="K6" s="112"/>
       <c r="L6" s="112"/>
       <c r="M6" s="111">
@@ -18935,19 +18935,19 @@
       <c r="A7" s="49">
         <v>2</v>
       </c>
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="216" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="227" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="226"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="225"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="244"/>
       <c r="H7" s="57">
         <v>5</v>
       </c>
-      <c r="I7" s="222"/>
-      <c r="J7" s="223"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="246"/>
       <c r="K7" s="112"/>
       <c r="L7" s="112"/>
       <c r="M7" s="111">
@@ -19028,17 +19028,17 @@
       <c r="A8" s="49">
         <v>3</v>
       </c>
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="225"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="244"/>
       <c r="H8" s="57">
         <v>6</v>
       </c>
-      <c r="I8" s="222"/>
-      <c r="J8" s="223"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="246"/>
       <c r="K8" s="112"/>
       <c r="L8" s="112"/>
       <c r="M8" s="111">
@@ -19107,17 +19107,17 @@
       <c r="A9" s="47">
         <v>4</v>
       </c>
-      <c r="B9" s="211" t="s">
+      <c r="B9" s="233" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="212"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="225"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="244"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="222"/>
-      <c r="J9" s="223"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="246"/>
       <c r="K9" s="112"/>
       <c r="L9" s="112"/>
       <c r="M9" s="111">
@@ -19186,15 +19186,15 @@
       <c r="A10" s="47">
         <v>5</v>
       </c>
-      <c r="B10" s="212"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="225"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="244"/>
       <c r="H10" s="56"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="223"/>
+      <c r="I10" s="245"/>
+      <c r="J10" s="246"/>
       <c r="K10" s="112"/>
       <c r="L10" s="112"/>
       <c r="M10" s="111">
@@ -19263,15 +19263,15 @@
       <c r="A11" s="47">
         <v>6</v>
       </c>
-      <c r="B11" s="212"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="224"/>
-      <c r="G11" s="225"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="244"/>
       <c r="H11" s="56"/>
-      <c r="I11" s="222"/>
-      <c r="J11" s="223"/>
+      <c r="I11" s="245"/>
+      <c r="J11" s="246"/>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
       <c r="M11" s="111">
@@ -19340,15 +19340,15 @@
       <c r="A12" s="47">
         <v>7</v>
       </c>
-      <c r="B12" s="212"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="240"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="224"/>
-      <c r="G12" s="225"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="244"/>
       <c r="H12" s="56"/>
-      <c r="I12" s="222"/>
-      <c r="J12" s="223"/>
+      <c r="I12" s="245"/>
+      <c r="J12" s="246"/>
       <c r="K12" s="112"/>
       <c r="L12" s="112"/>
       <c r="M12" s="111">
@@ -19417,19 +19417,19 @@
       <c r="A13" s="47">
         <v>8</v>
       </c>
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="227" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="217"/>
-      <c r="D13" s="216" t="s">
+      <c r="C13" s="256"/>
+      <c r="D13" s="227" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="226"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="225"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="244"/>
       <c r="H13" s="56"/>
-      <c r="I13" s="222"/>
-      <c r="J13" s="223"/>
+      <c r="I13" s="245"/>
+      <c r="J13" s="246"/>
       <c r="K13" s="112"/>
       <c r="L13" s="112"/>
       <c r="M13" s="111">
@@ -19498,17 +19498,17 @@
       <c r="A14" s="47">
         <v>9</v>
       </c>
-      <c r="B14" s="218"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="238" t="s">
+      <c r="B14" s="257"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="237" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="239"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="225"/>
+      <c r="E14" s="238"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="244"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="222"/>
-      <c r="J14" s="223"/>
+      <c r="I14" s="245"/>
+      <c r="J14" s="246"/>
       <c r="K14" s="112"/>
       <c r="L14" s="112"/>
       <c r="M14" s="111">
@@ -19577,17 +19577,17 @@
       <c r="A15" s="47">
         <v>10</v>
       </c>
-      <c r="B15" s="220"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="238" t="s">
+      <c r="B15" s="259"/>
+      <c r="C15" s="260"/>
+      <c r="D15" s="237" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="239"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="225"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="244"/>
       <c r="H15" s="56"/>
-      <c r="I15" s="222"/>
-      <c r="J15" s="223"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="246"/>
       <c r="K15" s="112"/>
       <c r="L15" s="112"/>
       <c r="M15" s="111">
@@ -19656,19 +19656,19 @@
       <c r="A16" s="47">
         <v>11</v>
       </c>
-      <c r="B16" s="211" t="s">
+      <c r="B16" s="233" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="212"/>
-      <c r="D16" s="238" t="s">
+      <c r="C16" s="248"/>
+      <c r="D16" s="237" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="239"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="225"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="244"/>
       <c r="H16" s="56"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="223"/>
+      <c r="I16" s="245"/>
+      <c r="J16" s="246"/>
       <c r="K16" s="112"/>
       <c r="L16" s="112"/>
       <c r="M16" s="111">
@@ -19737,17 +19737,17 @@
       <c r="A17" s="47">
         <v>12</v>
       </c>
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="238" t="s">
+      <c r="B17" s="248"/>
+      <c r="C17" s="248"/>
+      <c r="D17" s="237" t="s">
         <v>213</v>
       </c>
-      <c r="E17" s="239"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="225"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="244"/>
       <c r="H17" s="56"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="223"/>
+      <c r="I17" s="245"/>
+      <c r="J17" s="246"/>
       <c r="K17" s="112"/>
       <c r="L17" s="112"/>
       <c r="M17" s="111">
@@ -19816,17 +19816,17 @@
       <c r="A18" s="47">
         <v>13</v>
       </c>
-      <c r="B18" s="212"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="238" t="s">
+      <c r="B18" s="248"/>
+      <c r="C18" s="248"/>
+      <c r="D18" s="237" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="239"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="225"/>
+      <c r="E18" s="238"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="244"/>
       <c r="H18" s="56"/>
-      <c r="I18" s="222"/>
-      <c r="J18" s="223"/>
+      <c r="I18" s="245"/>
+      <c r="J18" s="246"/>
       <c r="K18" s="112"/>
       <c r="L18" s="112"/>
       <c r="M18" s="111">
@@ -19895,48 +19895,27 @@
       <c r="A19" s="47">
         <v>14</v>
       </c>
-      <c r="B19" s="211" t="s">
+      <c r="B19" s="233" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="212"/>
-      <c r="D19" s="238" t="s">
+      <c r="C19" s="248"/>
+      <c r="D19" s="237" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="239"/>
-      <c r="F19" s="224">
-        <f>F13</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="225"/>
-      <c r="H19" s="56">
-        <f>H13</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="222">
-        <f>I13</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="223"/>
-      <c r="K19" s="112">
-        <f>K13</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="112">
-        <f>L13</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="111">
-        <f>K19*коефіцієнти!$F19</f>
-        <v>0</v>
-      </c>
+      <c r="E19" s="238"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="245"/>
+      <c r="J19" s="246"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="111"/>
       <c r="N19" s="111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O19" s="111">
-        <f>L19*коефіцієнти!$F19</f>
-        <v>0</v>
-      </c>
+      <c r="O19" s="111"/>
       <c r="P19" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -19944,38 +19923,17 @@
       <c r="Q19" s="56">
         <v>14</v>
       </c>
-      <c r="R19" s="56">
-        <f>R13</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="56">
-        <f>S13</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="56">
-        <f>T13</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="111">
-        <f>U13</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="111">
-        <f>V13</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="111">
-        <f>U19*коефіцієнти!$F19</f>
-        <v>0</v>
-      </c>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
       <c r="X19" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="111">
-        <f>V19*коефіцієнти!$F19</f>
-        <v>0</v>
-      </c>
+      <c r="Y19" s="111"/>
       <c r="Z19" s="111">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -20006,46 +19964,25 @@
       <c r="A20" s="47">
         <v>15</v>
       </c>
-      <c r="B20" s="212"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="238" t="s">
+      <c r="B20" s="248"/>
+      <c r="C20" s="248"/>
+      <c r="D20" s="237" t="s">
         <v>213</v>
       </c>
-      <c r="E20" s="239"/>
-      <c r="F20" s="224">
-        <f t="shared" ref="F20:F21" si="9">F14</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="225"/>
-      <c r="H20" s="56">
-        <f t="shared" ref="H20:I21" si="10">H14</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="222">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="223"/>
-      <c r="K20" s="112">
-        <f t="shared" ref="K20:L20" si="11">K14</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="112">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="111">
-        <f>K20*коефіцієнти!$F20</f>
-        <v>0</v>
-      </c>
+      <c r="E20" s="238"/>
+      <c r="F20" s="243"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="245"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="111"/>
       <c r="N20" s="111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="111">
-        <f>L20*коефіцієнти!$F20</f>
-        <v>0</v>
-      </c>
+      <c r="O20" s="111"/>
       <c r="P20" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -20053,38 +19990,17 @@
       <c r="Q20" s="56">
         <v>15</v>
       </c>
-      <c r="R20" s="56">
-        <f t="shared" ref="R20:S21" si="12">R14</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="56">
-        <f t="shared" ref="T20:T21" si="13">T14</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="111">
-        <f t="shared" ref="U20" si="14">U14</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="111">
-        <f>V14</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="111">
-        <f>U20*коефіцієнти!$F20</f>
-        <v>0</v>
-      </c>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
       <c r="X20" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="111">
-        <f>V20*коефіцієнти!$F20</f>
-        <v>0</v>
-      </c>
+      <c r="Y20" s="111"/>
       <c r="Z20" s="111">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -20115,46 +20031,25 @@
       <c r="A21" s="47">
         <v>16</v>
       </c>
-      <c r="B21" s="212"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="238" t="s">
+      <c r="B21" s="248"/>
+      <c r="C21" s="248"/>
+      <c r="D21" s="237" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="239"/>
-      <c r="F21" s="224">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="225"/>
-      <c r="H21" s="56">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="222">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="223"/>
-      <c r="K21" s="112">
-        <f t="shared" ref="K21:L21" si="15">K15</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="112">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="111">
-        <f>K21*коефіцієнти!$F21</f>
-        <v>0</v>
-      </c>
+      <c r="E21" s="238"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="245"/>
+      <c r="J21" s="246"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="111"/>
       <c r="N21" s="111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="111">
-        <f>L21*коефіцієнти!$F21</f>
-        <v>0</v>
-      </c>
+      <c r="O21" s="111"/>
       <c r="P21" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -20162,38 +20057,17 @@
       <c r="Q21" s="56">
         <v>16</v>
       </c>
-      <c r="R21" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="56">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="111">
-        <f t="shared" ref="U21" si="16">U15</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="111">
-        <f>V15</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="111">
-        <f>U21*коефіцієнти!$F21</f>
-        <v>0</v>
-      </c>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
       <c r="X21" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="111">
-        <f>V21*коефіцієнти!$F21</f>
-        <v>0</v>
-      </c>
+      <c r="Y21" s="111"/>
       <c r="Z21" s="111">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -20224,19 +20098,19 @@
       <c r="A22" s="49">
         <v>17</v>
       </c>
-      <c r="B22" s="209" t="s">
+      <c r="B22" s="210" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="210"/>
-      <c r="D22" s="238" t="s">
+      <c r="C22" s="209"/>
+      <c r="D22" s="237" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="239"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="225"/>
+      <c r="E22" s="238"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="244"/>
       <c r="H22" s="56"/>
-      <c r="I22" s="222"/>
-      <c r="J22" s="223"/>
+      <c r="I22" s="245"/>
+      <c r="J22" s="246"/>
       <c r="K22" s="112"/>
       <c r="L22" s="112"/>
       <c r="M22" s="111">
@@ -20305,17 +20179,17 @@
       <c r="A23" s="49">
         <v>18</v>
       </c>
-      <c r="B23" s="210"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="238" t="s">
+      <c r="B23" s="209"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="237" t="s">
         <v>213</v>
       </c>
-      <c r="E23" s="239"/>
-      <c r="F23" s="224"/>
-      <c r="G23" s="225"/>
+      <c r="E23" s="238"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="244"/>
       <c r="H23" s="56"/>
-      <c r="I23" s="222"/>
-      <c r="J23" s="223"/>
+      <c r="I23" s="245"/>
+      <c r="J23" s="246"/>
       <c r="K23" s="112"/>
       <c r="L23" s="112"/>
       <c r="M23" s="111">
@@ -20384,21 +20258,21 @@
       <c r="A24" s="47">
         <v>19</v>
       </c>
-      <c r="B24" s="211" t="s">
+      <c r="B24" s="233" t="s">
         <v>166</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="216" t="s">
+      <c r="D24" s="227" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="226"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="225"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="243"/>
+      <c r="G24" s="244"/>
       <c r="H24" s="56"/>
-      <c r="I24" s="222"/>
-      <c r="J24" s="223"/>
+      <c r="I24" s="245"/>
+      <c r="J24" s="246"/>
       <c r="K24" s="112"/>
       <c r="L24" s="112"/>
       <c r="M24" s="111">
@@ -20467,17 +20341,17 @@
       <c r="A25" s="47">
         <v>20</v>
       </c>
-      <c r="B25" s="212"/>
+      <c r="B25" s="248"/>
       <c r="C25" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="227"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="224"/>
-      <c r="G25" s="225"/>
+      <c r="D25" s="239"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="244"/>
       <c r="H25" s="56"/>
-      <c r="I25" s="222"/>
-      <c r="J25" s="223"/>
+      <c r="I25" s="245"/>
+      <c r="J25" s="246"/>
       <c r="K25" s="112"/>
       <c r="L25" s="112"/>
       <c r="M25" s="111">
@@ -20546,17 +20420,17 @@
       <c r="A26" s="47">
         <v>21</v>
       </c>
-      <c r="B26" s="212"/>
+      <c r="B26" s="248"/>
       <c r="C26" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="229"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="224"/>
-      <c r="G26" s="225"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="243"/>
+      <c r="G26" s="244"/>
       <c r="H26" s="56"/>
-      <c r="I26" s="222"/>
-      <c r="J26" s="223"/>
+      <c r="I26" s="245"/>
+      <c r="J26" s="246"/>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
       <c r="M26" s="111">
@@ -20625,19 +20499,19 @@
       <c r="A27" s="47">
         <v>22</v>
       </c>
-      <c r="B27" s="212"/>
+      <c r="B27" s="248"/>
       <c r="C27" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D27" s="216" t="s">
+      <c r="D27" s="227" t="s">
         <v>213</v>
       </c>
-      <c r="E27" s="226"/>
-      <c r="F27" s="224"/>
-      <c r="G27" s="225"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="243"/>
+      <c r="G27" s="244"/>
       <c r="H27" s="56"/>
-      <c r="I27" s="222"/>
-      <c r="J27" s="223"/>
+      <c r="I27" s="245"/>
+      <c r="J27" s="246"/>
       <c r="K27" s="112"/>
       <c r="L27" s="112"/>
       <c r="M27" s="111">
@@ -20706,17 +20580,17 @@
       <c r="A28" s="47">
         <v>23</v>
       </c>
-      <c r="B28" s="212"/>
+      <c r="B28" s="248"/>
       <c r="C28" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="229"/>
-      <c r="E28" s="230"/>
-      <c r="F28" s="224"/>
-      <c r="G28" s="225"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="244"/>
       <c r="H28" s="56"/>
-      <c r="I28" s="222"/>
-      <c r="J28" s="223"/>
+      <c r="I28" s="245"/>
+      <c r="J28" s="246"/>
       <c r="K28" s="112"/>
       <c r="L28" s="112"/>
       <c r="M28" s="111">
@@ -20785,19 +20659,19 @@
       <c r="A29" s="47">
         <v>24</v>
       </c>
-      <c r="B29" s="212"/>
+      <c r="B29" s="248"/>
       <c r="C29" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="238" t="s">
+      <c r="D29" s="237" t="s">
         <v>214</v>
       </c>
-      <c r="E29" s="239"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="225"/>
+      <c r="E29" s="238"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="244"/>
       <c r="H29" s="56"/>
-      <c r="I29" s="222"/>
-      <c r="J29" s="223"/>
+      <c r="I29" s="245"/>
+      <c r="J29" s="246"/>
       <c r="K29" s="112"/>
       <c r="L29" s="112"/>
       <c r="M29" s="111">
@@ -20866,19 +20740,19 @@
       <c r="A30" s="47">
         <v>25</v>
       </c>
-      <c r="B30" s="211" t="s">
+      <c r="B30" s="233" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="212"/>
-      <c r="D30" s="235" t="s">
+      <c r="C30" s="248"/>
+      <c r="D30" s="236" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="236"/>
-      <c r="F30" s="224"/>
-      <c r="G30" s="225"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="244"/>
       <c r="H30" s="56"/>
-      <c r="I30" s="222"/>
-      <c r="J30" s="223"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="246"/>
       <c r="K30" s="112"/>
       <c r="L30" s="112"/>
       <c r="M30" s="111">
@@ -20947,17 +20821,17 @@
       <c r="A31" s="47">
         <v>26</v>
       </c>
-      <c r="B31" s="212"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="235" t="s">
+      <c r="B31" s="248"/>
+      <c r="C31" s="248"/>
+      <c r="D31" s="236" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="236"/>
-      <c r="F31" s="224"/>
-      <c r="G31" s="225"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="244"/>
       <c r="H31" s="56"/>
-      <c r="I31" s="222"/>
-      <c r="J31" s="223"/>
+      <c r="I31" s="245"/>
+      <c r="J31" s="246"/>
       <c r="K31" s="112"/>
       <c r="L31" s="112"/>
       <c r="M31" s="111">
@@ -21026,19 +20900,19 @@
       <c r="A32" s="47">
         <v>27</v>
       </c>
-      <c r="B32" s="209" t="s">
+      <c r="B32" s="210" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="233" t="s">
+      <c r="C32" s="254" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="233"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="224"/>
-      <c r="G32" s="225"/>
+      <c r="D32" s="254"/>
+      <c r="E32" s="255"/>
+      <c r="F32" s="243"/>
+      <c r="G32" s="244"/>
       <c r="H32" s="56"/>
-      <c r="I32" s="222"/>
-      <c r="J32" s="223"/>
+      <c r="I32" s="245"/>
+      <c r="J32" s="246"/>
       <c r="K32" s="112"/>
       <c r="L32" s="112"/>
       <c r="M32" s="111">
@@ -21107,17 +20981,17 @@
       <c r="A33" s="47">
         <v>28</v>
       </c>
-      <c r="B33" s="210"/>
-      <c r="C33" s="233" t="s">
+      <c r="B33" s="209"/>
+      <c r="C33" s="254" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="233"/>
-      <c r="E33" s="234"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="225"/>
+      <c r="D33" s="254"/>
+      <c r="E33" s="255"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="244"/>
       <c r="H33" s="56"/>
-      <c r="I33" s="222"/>
-      <c r="J33" s="223"/>
+      <c r="I33" s="245"/>
+      <c r="J33" s="246"/>
       <c r="K33" s="112"/>
       <c r="L33" s="112"/>
       <c r="M33" s="111">
@@ -21186,17 +21060,17 @@
       <c r="A34" s="47">
         <v>29</v>
       </c>
-      <c r="B34" s="210"/>
-      <c r="C34" s="233" t="s">
+      <c r="B34" s="209"/>
+      <c r="C34" s="254" t="s">
         <v>180</v>
       </c>
-      <c r="D34" s="233"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="224"/>
-      <c r="G34" s="225"/>
+      <c r="D34" s="254"/>
+      <c r="E34" s="255"/>
+      <c r="F34" s="243"/>
+      <c r="G34" s="244"/>
       <c r="H34" s="56"/>
-      <c r="I34" s="222"/>
-      <c r="J34" s="223"/>
+      <c r="I34" s="245"/>
+      <c r="J34" s="246"/>
       <c r="K34" s="112"/>
       <c r="L34" s="112"/>
       <c r="M34" s="111">
@@ -21265,17 +21139,17 @@
       <c r="A35" s="47">
         <v>30</v>
       </c>
-      <c r="B35" s="233" t="s">
+      <c r="B35" s="254" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="234"/>
-      <c r="D35" s="234"/>
-      <c r="E35" s="234"/>
-      <c r="F35" s="224"/>
-      <c r="G35" s="225"/>
+      <c r="C35" s="255"/>
+      <c r="D35" s="255"/>
+      <c r="E35" s="255"/>
+      <c r="F35" s="243"/>
+      <c r="G35" s="244"/>
       <c r="H35" s="56"/>
-      <c r="I35" s="222"/>
-      <c r="J35" s="223"/>
+      <c r="I35" s="245"/>
+      <c r="J35" s="246"/>
       <c r="K35" s="112"/>
       <c r="L35" s="112"/>
       <c r="M35" s="111">
@@ -21344,39 +21218,39 @@
       <c r="A36" s="47">
         <v>31</v>
       </c>
-      <c r="B36" s="231" t="s">
+      <c r="B36" s="249" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="232"/>
-      <c r="D36" s="232"/>
-      <c r="E36" s="232"/>
-      <c r="F36" s="224"/>
-      <c r="G36" s="225"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
+      <c r="E36" s="250"/>
+      <c r="F36" s="243"/>
+      <c r="G36" s="244"/>
       <c r="H36" s="56"/>
-      <c r="I36" s="222"/>
-      <c r="J36" s="223"/>
+      <c r="I36" s="245"/>
+      <c r="J36" s="246"/>
       <c r="K36" s="112">
         <f>SUM(K6:K35)</f>
         <v>0</v>
       </c>
       <c r="L36" s="112">
-        <f t="shared" ref="L36:P36" si="17">SUM(L6:L35)</f>
+        <f t="shared" ref="L36:P36" si="9">SUM(L6:L35)</f>
         <v>0</v>
       </c>
       <c r="M36" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N36" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O36" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P36" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q36" s="56">
@@ -21390,39 +21264,39 @@
         <v>0</v>
       </c>
       <c r="V36" s="111">
-        <f t="shared" ref="V36:AD36" si="18">SUM(V6:V35)</f>
+        <f t="shared" ref="V36:AD36" si="10">SUM(V6:V35)</f>
         <v>0</v>
       </c>
       <c r="W36" s="111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X36" s="111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y36" s="111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z36" s="111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA36" s="111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB36" s="111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC36" s="111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD36" s="111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE36" s="25"/>
@@ -21506,40 +21380,40 @@
       <c r="AI38" s="25"/>
     </row>
     <row r="39" spans="1:35" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="237" t="s">
+      <c r="A39" s="247" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="237"/>
-      <c r="C39" s="237"/>
-      <c r="D39" s="237"/>
-      <c r="E39" s="237"/>
-      <c r="F39" s="237"/>
-      <c r="G39" s="237"/>
-      <c r="H39" s="237"/>
-      <c r="I39" s="237"/>
-      <c r="J39" s="237"/>
-      <c r="K39" s="237"/>
-      <c r="L39" s="237"/>
-      <c r="M39" s="237"/>
-      <c r="N39" s="237"/>
-      <c r="O39" s="237"/>
-      <c r="P39" s="237"/>
-      <c r="Q39" s="242" t="s">
+      <c r="B39" s="247"/>
+      <c r="C39" s="247"/>
+      <c r="D39" s="247"/>
+      <c r="E39" s="247"/>
+      <c r="F39" s="247"/>
+      <c r="G39" s="247"/>
+      <c r="H39" s="247"/>
+      <c r="I39" s="247"/>
+      <c r="J39" s="247"/>
+      <c r="K39" s="247"/>
+      <c r="L39" s="247"/>
+      <c r="M39" s="247"/>
+      <c r="N39" s="247"/>
+      <c r="O39" s="247"/>
+      <c r="P39" s="247"/>
+      <c r="Q39" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="R39" s="242"/>
-      <c r="S39" s="242"/>
-      <c r="T39" s="242"/>
-      <c r="U39" s="242"/>
-      <c r="V39" s="242"/>
-      <c r="W39" s="242"/>
-      <c r="X39" s="242"/>
-      <c r="Y39" s="242"/>
-      <c r="Z39" s="242"/>
-      <c r="AA39" s="242"/>
-      <c r="AB39" s="242"/>
-      <c r="AC39" s="242"/>
-      <c r="AD39" s="242"/>
+      <c r="R39" s="214"/>
+      <c r="S39" s="214"/>
+      <c r="T39" s="214"/>
+      <c r="U39" s="214"/>
+      <c r="V39" s="214"/>
+      <c r="W39" s="214"/>
+      <c r="X39" s="214"/>
+      <c r="Y39" s="214"/>
+      <c r="Z39" s="214"/>
+      <c r="AA39" s="214"/>
+      <c r="AB39" s="214"/>
+      <c r="AC39" s="214"/>
+      <c r="AD39" s="214"/>
       <c r="AE39" s="25"/>
       <c r="AF39" s="25"/>
       <c r="AG39" s="25"/>
@@ -21585,51 +21459,51 @@
     </row>
     <row r="41" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="211" t="s">
+      <c r="B41" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="211"/>
-      <c r="D41" s="211"/>
-      <c r="E41" s="243" t="s">
+      <c r="C41" s="233"/>
+      <c r="D41" s="233"/>
+      <c r="E41" s="215" t="s">
         <v>186</v>
       </c>
-      <c r="F41" s="244"/>
-      <c r="G41" s="244"/>
-      <c r="H41" s="245"/>
-      <c r="I41" s="249" t="s">
+      <c r="F41" s="216"/>
+      <c r="G41" s="216"/>
+      <c r="H41" s="217"/>
+      <c r="I41" s="221" t="s">
         <v>187</v>
       </c>
-      <c r="J41" s="250"/>
-      <c r="K41" s="250"/>
-      <c r="L41" s="251"/>
-      <c r="M41" s="216" t="s">
+      <c r="J41" s="222"/>
+      <c r="K41" s="222"/>
+      <c r="L41" s="223"/>
+      <c r="M41" s="227" t="s">
         <v>152</v>
       </c>
-      <c r="N41" s="255"/>
-      <c r="O41" s="255"/>
-      <c r="P41" s="226"/>
+      <c r="N41" s="228"/>
+      <c r="O41" s="228"/>
+      <c r="P41" s="229"/>
       <c r="Q41" s="25"/>
-      <c r="R41" s="209" t="s">
+      <c r="R41" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="S41" s="211" t="s">
+      <c r="S41" s="233" t="s">
         <v>193</v>
       </c>
-      <c r="T41" s="211"/>
-      <c r="U41" s="211"/>
-      <c r="V41" s="211"/>
-      <c r="W41" s="211"/>
-      <c r="X41" s="211"/>
-      <c r="Y41" s="211"/>
-      <c r="Z41" s="211"/>
-      <c r="AA41" s="209" t="s">
+      <c r="T41" s="233"/>
+      <c r="U41" s="233"/>
+      <c r="V41" s="233"/>
+      <c r="W41" s="233"/>
+      <c r="X41" s="233"/>
+      <c r="Y41" s="233"/>
+      <c r="Z41" s="233"/>
+      <c r="AA41" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="AB41" s="210"/>
-      <c r="AC41" s="209" t="s">
+      <c r="AB41" s="209"/>
+      <c r="AC41" s="210" t="s">
         <v>194</v>
       </c>
-      <c r="AD41" s="210"/>
+      <c r="AD41" s="209"/>
       <c r="AE41" s="25"/>
       <c r="AF41" s="25"/>
       <c r="AG41" s="25"/>
@@ -21638,35 +21512,35 @@
     </row>
     <row r="42" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
-      <c r="B42" s="211"/>
-      <c r="C42" s="211"/>
-      <c r="D42" s="211"/>
-      <c r="E42" s="246"/>
-      <c r="F42" s="247"/>
-      <c r="G42" s="247"/>
-      <c r="H42" s="248"/>
-      <c r="I42" s="252"/>
-      <c r="J42" s="253"/>
-      <c r="K42" s="253"/>
-      <c r="L42" s="254"/>
-      <c r="M42" s="229"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="230"/>
+      <c r="B42" s="233"/>
+      <c r="C42" s="233"/>
+      <c r="D42" s="233"/>
+      <c r="E42" s="218"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="224"/>
+      <c r="J42" s="225"/>
+      <c r="K42" s="225"/>
+      <c r="L42" s="226"/>
+      <c r="M42" s="230"/>
+      <c r="N42" s="231"/>
+      <c r="O42" s="231"/>
+      <c r="P42" s="232"/>
       <c r="Q42" s="25"/>
-      <c r="R42" s="209"/>
-      <c r="S42" s="211"/>
-      <c r="T42" s="211"/>
-      <c r="U42" s="211"/>
-      <c r="V42" s="211"/>
-      <c r="W42" s="211"/>
-      <c r="X42" s="211"/>
-      <c r="Y42" s="211"/>
-      <c r="Z42" s="211"/>
-      <c r="AA42" s="210"/>
-      <c r="AB42" s="210"/>
-      <c r="AC42" s="210"/>
-      <c r="AD42" s="210"/>
+      <c r="R42" s="210"/>
+      <c r="S42" s="233"/>
+      <c r="T42" s="233"/>
+      <c r="U42" s="233"/>
+      <c r="V42" s="233"/>
+      <c r="W42" s="233"/>
+      <c r="X42" s="233"/>
+      <c r="Y42" s="233"/>
+      <c r="Z42" s="233"/>
+      <c r="AA42" s="209"/>
+      <c r="AB42" s="209"/>
+      <c r="AC42" s="209"/>
+      <c r="AD42" s="209"/>
       <c r="AE42" s="25"/>
       <c r="AF42" s="25"/>
       <c r="AG42" s="25"/>
@@ -21675,55 +21549,55 @@
     </row>
     <row r="43" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
-      <c r="B43" s="211"/>
-      <c r="C43" s="211"/>
-      <c r="D43" s="211"/>
-      <c r="E43" s="257" t="s">
+      <c r="B43" s="233"/>
+      <c r="C43" s="233"/>
+      <c r="D43" s="233"/>
+      <c r="E43" s="234" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="236"/>
-      <c r="G43" s="235" t="s">
+      <c r="F43" s="235"/>
+      <c r="G43" s="236" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="236"/>
-      <c r="I43" s="235" t="s">
+      <c r="H43" s="235"/>
+      <c r="I43" s="236" t="s">
         <v>153</v>
       </c>
-      <c r="J43" s="236"/>
-      <c r="K43" s="235" t="s">
+      <c r="J43" s="235"/>
+      <c r="K43" s="236" t="s">
         <v>154</v>
       </c>
-      <c r="L43" s="236"/>
-      <c r="M43" s="235" t="s">
+      <c r="L43" s="235"/>
+      <c r="M43" s="236" t="s">
         <v>153</v>
       </c>
-      <c r="N43" s="236"/>
-      <c r="O43" s="235" t="s">
+      <c r="N43" s="235"/>
+      <c r="O43" s="236" t="s">
         <v>154</v>
       </c>
-      <c r="P43" s="236"/>
+      <c r="P43" s="235"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="51">
         <v>1</v>
       </c>
-      <c r="S43" s="210">
+      <c r="S43" s="209">
         <v>2</v>
       </c>
-      <c r="T43" s="210"/>
-      <c r="U43" s="210"/>
-      <c r="V43" s="210"/>
-      <c r="W43" s="210"/>
-      <c r="X43" s="210"/>
-      <c r="Y43" s="210"/>
-      <c r="Z43" s="210"/>
-      <c r="AA43" s="210">
+      <c r="T43" s="209"/>
+      <c r="U43" s="209"/>
+      <c r="V43" s="209"/>
+      <c r="W43" s="209"/>
+      <c r="X43" s="209"/>
+      <c r="Y43" s="209"/>
+      <c r="Z43" s="209"/>
+      <c r="AA43" s="209">
         <v>3</v>
       </c>
-      <c r="AB43" s="210"/>
-      <c r="AC43" s="210">
+      <c r="AB43" s="209"/>
+      <c r="AC43" s="209">
         <v>4</v>
       </c>
-      <c r="AD43" s="210"/>
+      <c r="AD43" s="209"/>
       <c r="AE43" s="25"/>
       <c r="AF43" s="25"/>
       <c r="AG43" s="25"/>
@@ -21732,9 +21606,9 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
-      <c r="B44" s="211"/>
-      <c r="C44" s="211"/>
-      <c r="D44" s="211"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="233"/>
+      <c r="D44" s="233"/>
       <c r="E44" s="55" t="s">
         <v>113</v>
       </c>
@@ -21773,18 +21647,18 @@
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="47"/>
-      <c r="S44" s="258"/>
-      <c r="T44" s="259"/>
-      <c r="U44" s="259"/>
-      <c r="V44" s="259"/>
-      <c r="W44" s="259"/>
-      <c r="X44" s="259"/>
-      <c r="Y44" s="259"/>
-      <c r="Z44" s="260"/>
-      <c r="AA44" s="258"/>
-      <c r="AB44" s="260"/>
-      <c r="AC44" s="258"/>
-      <c r="AD44" s="260"/>
+      <c r="S44" s="211"/>
+      <c r="T44" s="212"/>
+      <c r="U44" s="212"/>
+      <c r="V44" s="212"/>
+      <c r="W44" s="212"/>
+      <c r="X44" s="212"/>
+      <c r="Y44" s="212"/>
+      <c r="Z44" s="213"/>
+      <c r="AA44" s="211"/>
+      <c r="AB44" s="213"/>
+      <c r="AC44" s="211"/>
+      <c r="AD44" s="213"/>
       <c r="AE44" s="25"/>
       <c r="AF44" s="25"/>
       <c r="AG44" s="25"/>
@@ -21793,11 +21667,11 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
-      <c r="B45" s="209" t="s">
+      <c r="B45" s="210" t="s">
         <v>188</v>
       </c>
-      <c r="C45" s="210"/>
-      <c r="D45" s="210"/>
+      <c r="C45" s="209"/>
+      <c r="D45" s="209"/>
       <c r="E45" s="56">
         <f>'4-7'!BQ27</f>
         <v>0</v>
@@ -21819,15 +21693,15 @@
         <v>0</v>
       </c>
       <c r="J45" s="56">
-        <f t="shared" ref="J45:L45" si="19">N36</f>
+        <f t="shared" ref="J45:L45" si="11">N36</f>
         <v>0</v>
       </c>
       <c r="K45" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L45" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M45" s="56">
@@ -21835,31 +21709,31 @@
         <v>0</v>
       </c>
       <c r="N45" s="56">
-        <f t="shared" ref="N45:P45" si="20">J45+F45</f>
+        <f t="shared" ref="N45:P45" si="12">J45+F45</f>
         <v>0</v>
       </c>
       <c r="O45" s="56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P45" s="56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="47"/>
-      <c r="S45" s="258"/>
-      <c r="T45" s="259"/>
-      <c r="U45" s="259"/>
-      <c r="V45" s="259"/>
-      <c r="W45" s="259"/>
-      <c r="X45" s="259"/>
-      <c r="Y45" s="259"/>
-      <c r="Z45" s="260"/>
-      <c r="AA45" s="258"/>
-      <c r="AB45" s="260"/>
-      <c r="AC45" s="258"/>
-      <c r="AD45" s="260"/>
+      <c r="S45" s="211"/>
+      <c r="T45" s="212"/>
+      <c r="U45" s="212"/>
+      <c r="V45" s="212"/>
+      <c r="W45" s="212"/>
+      <c r="X45" s="212"/>
+      <c r="Y45" s="212"/>
+      <c r="Z45" s="213"/>
+      <c r="AA45" s="211"/>
+      <c r="AB45" s="213"/>
+      <c r="AC45" s="211"/>
+      <c r="AD45" s="213"/>
       <c r="AE45" s="25"/>
       <c r="AF45" s="25"/>
       <c r="AG45" s="25"/>
@@ -21868,11 +21742,11 @@
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
-      <c r="B46" s="209" t="s">
+      <c r="B46" s="210" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="210"/>
-      <c r="D46" s="210"/>
+      <c r="C46" s="209"/>
+      <c r="D46" s="209"/>
       <c r="E46" s="56">
         <f>'4-7'!BQ46</f>
         <v>0</v>
@@ -21894,47 +21768,47 @@
         <v>0</v>
       </c>
       <c r="J46" s="56">
-        <f t="shared" ref="J46:L46" si="21">X36</f>
+        <f t="shared" ref="J46:L46" si="13">X36</f>
         <v>0</v>
       </c>
       <c r="K46" s="56">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L46" s="56">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M46" s="56">
-        <f t="shared" ref="M46:M47" si="22">I46+E46</f>
+        <f t="shared" ref="M46:M47" si="14">I46+E46</f>
         <v>0</v>
       </c>
       <c r="N46" s="56">
-        <f t="shared" ref="N46:N47" si="23">J46+F46</f>
+        <f t="shared" ref="N46:N47" si="15">J46+F46</f>
         <v>0</v>
       </c>
       <c r="O46" s="56">
-        <f t="shared" ref="O46:O47" si="24">K46+G46</f>
+        <f t="shared" ref="O46:O47" si="16">K46+G46</f>
         <v>0</v>
       </c>
       <c r="P46" s="56">
-        <f t="shared" ref="P46:P47" si="25">L46+H46</f>
+        <f t="shared" ref="P46:P47" si="17">L46+H46</f>
         <v>0</v>
       </c>
       <c r="Q46" s="25"/>
       <c r="R46" s="47"/>
-      <c r="S46" s="258"/>
-      <c r="T46" s="259"/>
-      <c r="U46" s="259"/>
-      <c r="V46" s="259"/>
-      <c r="W46" s="259"/>
-      <c r="X46" s="259"/>
-      <c r="Y46" s="259"/>
-      <c r="Z46" s="260"/>
-      <c r="AA46" s="258"/>
-      <c r="AB46" s="260"/>
-      <c r="AC46" s="258"/>
-      <c r="AD46" s="260"/>
+      <c r="S46" s="211"/>
+      <c r="T46" s="212"/>
+      <c r="U46" s="212"/>
+      <c r="V46" s="212"/>
+      <c r="W46" s="212"/>
+      <c r="X46" s="212"/>
+      <c r="Y46" s="212"/>
+      <c r="Z46" s="213"/>
+      <c r="AA46" s="211"/>
+      <c r="AB46" s="213"/>
+      <c r="AC46" s="211"/>
+      <c r="AD46" s="213"/>
       <c r="AE46" s="25"/>
       <c r="AF46" s="25"/>
       <c r="AG46" s="25"/>
@@ -21943,11 +21817,11 @@
     </row>
     <row r="47" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
-      <c r="B47" s="209" t="s">
+      <c r="B47" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="209"/>
-      <c r="D47" s="209"/>
+      <c r="C47" s="210"/>
+      <c r="D47" s="210"/>
       <c r="E47" s="56">
         <f>'4-7'!BQ48</f>
         <v>0</v>
@@ -21969,47 +21843,47 @@
         <v>0</v>
       </c>
       <c r="J47" s="56">
-        <f t="shared" ref="J47:L47" si="26">AB36</f>
+        <f t="shared" ref="J47:L47" si="18">AB36</f>
         <v>0</v>
       </c>
       <c r="K47" s="56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L47" s="56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M47" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N47" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O47" s="56">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P47" s="56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="47"/>
-      <c r="S47" s="210"/>
-      <c r="T47" s="210"/>
-      <c r="U47" s="210"/>
-      <c r="V47" s="210"/>
-      <c r="W47" s="210"/>
-      <c r="X47" s="210"/>
-      <c r="Y47" s="210"/>
-      <c r="Z47" s="210"/>
-      <c r="AA47" s="210"/>
-      <c r="AB47" s="210"/>
-      <c r="AC47" s="210"/>
-      <c r="AD47" s="210"/>
+      <c r="S47" s="209"/>
+      <c r="T47" s="209"/>
+      <c r="U47" s="209"/>
+      <c r="V47" s="209"/>
+      <c r="W47" s="209"/>
+      <c r="X47" s="209"/>
+      <c r="Y47" s="209"/>
+      <c r="Z47" s="209"/>
+      <c r="AA47" s="209"/>
+      <c r="AB47" s="209"/>
+      <c r="AC47" s="209"/>
+      <c r="AD47" s="209"/>
       <c r="AE47" s="25"/>
       <c r="AF47" s="25"/>
       <c r="AG47" s="25"/>
@@ -22035,18 +21909,18 @@
       <c r="P48" s="25"/>
       <c r="Q48" s="25"/>
       <c r="R48" s="47"/>
-      <c r="S48" s="210"/>
-      <c r="T48" s="210"/>
-      <c r="U48" s="210"/>
-      <c r="V48" s="210"/>
-      <c r="W48" s="210"/>
-      <c r="X48" s="210"/>
-      <c r="Y48" s="210"/>
-      <c r="Z48" s="210"/>
-      <c r="AA48" s="210"/>
-      <c r="AB48" s="210"/>
-      <c r="AC48" s="210"/>
-      <c r="AD48" s="210"/>
+      <c r="S48" s="209"/>
+      <c r="T48" s="209"/>
+      <c r="U48" s="209"/>
+      <c r="V48" s="209"/>
+      <c r="W48" s="209"/>
+      <c r="X48" s="209"/>
+      <c r="Y48" s="209"/>
+      <c r="Z48" s="209"/>
+      <c r="AA48" s="209"/>
+      <c r="AB48" s="209"/>
+      <c r="AC48" s="209"/>
+      <c r="AD48" s="209"/>
       <c r="AE48" s="25"/>
       <c r="AF48" s="25"/>
       <c r="AG48" s="25"/>
@@ -22072,18 +21946,18 @@
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="47"/>
-      <c r="S49" s="210"/>
-      <c r="T49" s="210"/>
-      <c r="U49" s="210"/>
-      <c r="V49" s="210"/>
-      <c r="W49" s="210"/>
-      <c r="X49" s="210"/>
-      <c r="Y49" s="210"/>
-      <c r="Z49" s="210"/>
-      <c r="AA49" s="210"/>
-      <c r="AB49" s="210"/>
-      <c r="AC49" s="210"/>
-      <c r="AD49" s="210"/>
+      <c r="S49" s="209"/>
+      <c r="T49" s="209"/>
+      <c r="U49" s="209"/>
+      <c r="V49" s="209"/>
+      <c r="W49" s="209"/>
+      <c r="X49" s="209"/>
+      <c r="Y49" s="209"/>
+      <c r="Z49" s="209"/>
+      <c r="AA49" s="209"/>
+      <c r="AB49" s="209"/>
+      <c r="AC49" s="209"/>
+      <c r="AD49" s="209"/>
       <c r="AE49" s="25"/>
       <c r="AF49" s="25"/>
       <c r="AG49" s="25"/>
@@ -22109,18 +21983,18 @@
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="47"/>
-      <c r="S50" s="210"/>
-      <c r="T50" s="210"/>
-      <c r="U50" s="210"/>
-      <c r="V50" s="210"/>
-      <c r="W50" s="210"/>
-      <c r="X50" s="210"/>
-      <c r="Y50" s="210"/>
-      <c r="Z50" s="210"/>
-      <c r="AA50" s="210"/>
-      <c r="AB50" s="210"/>
-      <c r="AC50" s="210"/>
-      <c r="AD50" s="210"/>
+      <c r="S50" s="209"/>
+      <c r="T50" s="209"/>
+      <c r="U50" s="209"/>
+      <c r="V50" s="209"/>
+      <c r="W50" s="209"/>
+      <c r="X50" s="209"/>
+      <c r="Y50" s="209"/>
+      <c r="Z50" s="209"/>
+      <c r="AA50" s="209"/>
+      <c r="AB50" s="209"/>
+      <c r="AC50" s="209"/>
+      <c r="AD50" s="209"/>
       <c r="AE50" s="25"/>
       <c r="AF50" s="25"/>
       <c r="AG50" s="25"/>
@@ -37151,58 +37025,97 @@
     </row>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="S48:Z48"/>
-    <mergeCell ref="S49:Z49"/>
-    <mergeCell ref="S50:Z50"/>
-    <mergeCell ref="AA41:AB42"/>
-    <mergeCell ref="AC41:AD42"/>
-    <mergeCell ref="S43:Z43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="S44:Z44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="AC47:AD47"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="AA48:AB48"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AA50:AB50"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="Q39:AD39"/>
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="I41:L42"/>
-    <mergeCell ref="M41:P42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="S41:Z42"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B41:D44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S45:Z45"/>
-    <mergeCell ref="S46:Z46"/>
-    <mergeCell ref="S47:Z47"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D24:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="B9:C12"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="F3:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="AA2:AD3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="I3:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F36:G36"/>
@@ -37227,97 +37140,58 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="AA2:AD3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="I3:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="B9:C12"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="F3:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B3:E5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D24:E26"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="Q39:AD39"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I41:L42"/>
+    <mergeCell ref="M41:P42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="S41:Z42"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S45:Z45"/>
+    <mergeCell ref="S46:Z46"/>
+    <mergeCell ref="S47:Z47"/>
+    <mergeCell ref="S48:Z48"/>
+    <mergeCell ref="S49:Z49"/>
+    <mergeCell ref="S50:Z50"/>
+    <mergeCell ref="AA41:AB42"/>
+    <mergeCell ref="AC41:AD42"/>
+    <mergeCell ref="S43:Z43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="S44:Z44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AA50:AB50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -37703,12 +37577,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="268" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
+      <c r="B2" s="268"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
     </row>
     <row r="3" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -37863,74 +37737,79 @@
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="266" t="s">
+      <c r="A28" s="263" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="267"/>
-      <c r="C28" s="267"/>
-      <c r="D28" s="267"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="264"/>
     </row>
     <row r="29" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="263" t="s">
+      <c r="A30" s="266" t="s">
         <v>206</v>
       </c>
-      <c r="B30" s="263"/>
-      <c r="C30" s="264"/>
-      <c r="D30" s="264"/>
+      <c r="B30" s="266"/>
+      <c r="C30" s="265"/>
+      <c r="D30" s="265"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="264"/>
-      <c r="B31" s="264"/>
-      <c r="C31" s="264"/>
-      <c r="D31" s="264"/>
+      <c r="A31" s="265"/>
+      <c r="B31" s="265"/>
+      <c r="C31" s="265"/>
+      <c r="D31" s="265"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="264"/>
-      <c r="B32" s="264"/>
-      <c r="C32" s="264"/>
-      <c r="D32" s="264"/>
+      <c r="A32" s="265"/>
+      <c r="B32" s="265"/>
+      <c r="C32" s="265"/>
+      <c r="D32" s="265"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="264"/>
-      <c r="B33" s="264"/>
-      <c r="C33" s="264"/>
-      <c r="D33" s="264"/>
+      <c r="A33" s="265"/>
+      <c r="B33" s="265"/>
+      <c r="C33" s="265"/>
+      <c r="D33" s="265"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="264"/>
-      <c r="B34" s="264"/>
-      <c r="C34" s="264"/>
-      <c r="D34" s="264"/>
+      <c r="A34" s="265"/>
+      <c r="B34" s="265"/>
+      <c r="C34" s="265"/>
+      <c r="D34" s="265"/>
     </row>
     <row r="36" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="263" t="s">
+      <c r="A37" s="266" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="268"/>
-      <c r="C37" s="268"/>
-      <c r="D37" s="268"/>
+      <c r="B37" s="267"/>
+      <c r="C37" s="267"/>
+      <c r="D37" s="267"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="266" t="s">
+      <c r="A41" s="263" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="267"/>
-      <c r="C41" s="267"/>
-      <c r="D41" s="267"/>
+      <c r="B41" s="264"/>
+      <c r="C41" s="264"/>
+      <c r="D41" s="264"/>
     </row>
     <row r="43" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="266" t="s">
+      <c r="A44" s="263" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="267"/>
-      <c r="C44" s="267"/>
-      <c r="D44" s="267"/>
+      <c r="B44" s="264"/>
+      <c r="C44" s="264"/>
+      <c r="D44" s="264"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
@@ -37938,11 +37817,6 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
@@ -37965,15 +37839,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="233" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
       <c r="F2" s="276" t="s">
         <v>195</v>
       </c>
@@ -37987,27 +37861,27 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="269"/>
-      <c r="S2" s="269"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="269"/>
-      <c r="AA2" s="269"/>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="270"/>
-      <c r="AD2" s="270"/>
+      <c r="Q2" s="279"/>
+      <c r="R2" s="279"/>
+      <c r="S2" s="279"/>
+      <c r="T2" s="279"/>
+      <c r="U2" s="279"/>
+      <c r="V2" s="279"/>
+      <c r="W2" s="279"/>
+      <c r="X2" s="279"/>
+      <c r="Y2" s="279"/>
+      <c r="Z2" s="279"/>
+      <c r="AA2" s="279"/>
+      <c r="AB2" s="280"/>
+      <c r="AC2" s="280"/>
+      <c r="AD2" s="280"/>
     </row>
     <row r="3" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="209"/>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
+      <c r="A3" s="210"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
       <c r="F3" s="277"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -38015,27 +37889,27 @@
       <c r="J3" s="43"/>
       <c r="K3" s="60"/>
       <c r="L3" s="60"/>
-      <c r="Q3" s="269"/>
+      <c r="Q3" s="279"/>
       <c r="R3" s="271"/>
       <c r="S3" s="273"/>
       <c r="T3" s="271"/>
       <c r="U3" s="275"/>
       <c r="V3" s="275"/>
-      <c r="W3" s="269"/>
-      <c r="X3" s="270"/>
-      <c r="Y3" s="270"/>
-      <c r="Z3" s="270"/>
-      <c r="AA3" s="270"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="270"/>
-      <c r="AD3" s="270"/>
+      <c r="W3" s="279"/>
+      <c r="X3" s="280"/>
+      <c r="Y3" s="280"/>
+      <c r="Z3" s="280"/>
+      <c r="AA3" s="280"/>
+      <c r="AB3" s="280"/>
+      <c r="AC3" s="280"/>
+      <c r="AD3" s="280"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="209"/>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
+      <c r="A4" s="210"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
       <c r="F4" s="277"/>
       <c r="G4" s="25"/>
       <c r="H4" s="29"/>
@@ -38043,27 +37917,27 @@
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
       <c r="L4" s="43"/>
-      <c r="Q4" s="269"/>
+      <c r="Q4" s="279"/>
       <c r="R4" s="272"/>
       <c r="S4" s="274"/>
       <c r="T4" s="272"/>
       <c r="U4" s="271"/>
       <c r="V4" s="271"/>
-      <c r="W4" s="269"/>
-      <c r="X4" s="270"/>
-      <c r="Y4" s="269"/>
-      <c r="Z4" s="270"/>
-      <c r="AA4" s="269"/>
-      <c r="AB4" s="270"/>
-      <c r="AC4" s="269"/>
-      <c r="AD4" s="270"/>
+      <c r="W4" s="279"/>
+      <c r="X4" s="280"/>
+      <c r="Y4" s="279"/>
+      <c r="Z4" s="280"/>
+      <c r="AA4" s="279"/>
+      <c r="AB4" s="280"/>
+      <c r="AC4" s="279"/>
+      <c r="AD4" s="280"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="209"/>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
+      <c r="A5" s="210"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
       <c r="F5" s="278"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -38071,7 +37945,7 @@
       <c r="J5" s="43"/>
       <c r="K5" s="59"/>
       <c r="L5" s="59"/>
-      <c r="Q5" s="269"/>
+      <c r="Q5" s="279"/>
       <c r="R5" s="272"/>
       <c r="S5" s="274"/>
       <c r="T5" s="272"/>
@@ -38090,14 +37964,14 @@
       <c r="A6" s="47">
         <v>1</v>
       </c>
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="233" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="211" t="s">
+      <c r="C6" s="248"/>
+      <c r="D6" s="233" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="211"/>
+      <c r="E6" s="233"/>
       <c r="F6" s="56">
         <v>1</v>
       </c>
@@ -38126,12 +38000,12 @@
       <c r="A7" s="47">
         <v>2</v>
       </c>
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="211" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="233" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="211"/>
+      <c r="E7" s="233"/>
       <c r="F7" s="56">
         <v>10</v>
       </c>
@@ -38160,10 +38034,10 @@
       <c r="A8" s="47">
         <v>3</v>
       </c>
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
       <c r="F8" s="56">
         <v>1</v>
       </c>
@@ -38192,12 +38066,12 @@
       <c r="A9" s="47">
         <v>4</v>
       </c>
-      <c r="B9" s="211" t="s">
+      <c r="B9" s="233" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="212"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248"/>
       <c r="F9" s="56">
         <v>1</v>
       </c>
@@ -38226,10 +38100,10 @@
       <c r="A10" s="47">
         <v>5</v>
       </c>
-      <c r="B10" s="212"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
       <c r="F10" s="56">
         <v>1</v>
       </c>
@@ -38258,10 +38132,10 @@
       <c r="A11" s="47">
         <v>6</v>
       </c>
-      <c r="B11" s="212"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="212"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
       <c r="F11" s="56">
         <v>1</v>
       </c>
@@ -38290,10 +38164,10 @@
       <c r="A12" s="47">
         <v>7</v>
       </c>
-      <c r="B12" s="212"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
       <c r="F12" s="56">
         <v>1</v>
       </c>
@@ -38322,14 +38196,14 @@
       <c r="A13" s="47">
         <v>8</v>
       </c>
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="233" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="212"/>
-      <c r="D13" s="211" t="s">
+      <c r="C13" s="248"/>
+      <c r="D13" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="211"/>
+      <c r="E13" s="233"/>
       <c r="F13" s="56">
         <v>19.5</v>
       </c>
@@ -38358,12 +38232,12 @@
       <c r="A14" s="47">
         <v>9</v>
       </c>
-      <c r="B14" s="212"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="211" t="s">
+      <c r="B14" s="248"/>
+      <c r="C14" s="248"/>
+      <c r="D14" s="233" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="211"/>
+      <c r="E14" s="233"/>
       <c r="F14" s="56">
         <v>20</v>
       </c>
@@ -38392,12 +38266,12 @@
       <c r="A15" s="47">
         <v>10</v>
       </c>
-      <c r="B15" s="212"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="211" t="s">
+      <c r="B15" s="248"/>
+      <c r="C15" s="248"/>
+      <c r="D15" s="233" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="211"/>
+      <c r="E15" s="233"/>
       <c r="F15" s="56">
         <v>32</v>
       </c>
@@ -38426,14 +38300,14 @@
       <c r="A16" s="47">
         <v>11</v>
       </c>
-      <c r="B16" s="211" t="s">
+      <c r="B16" s="233" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="212"/>
-      <c r="D16" s="211" t="s">
+      <c r="C16" s="248"/>
+      <c r="D16" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="211"/>
+      <c r="E16" s="233"/>
       <c r="F16" s="56">
         <v>1</v>
       </c>
@@ -38462,12 +38336,12 @@
       <c r="A17" s="47">
         <v>12</v>
       </c>
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="211" t="s">
+      <c r="B17" s="248"/>
+      <c r="C17" s="248"/>
+      <c r="D17" s="233" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="211"/>
+      <c r="E17" s="233"/>
       <c r="F17" s="56">
         <v>1</v>
       </c>
@@ -38496,12 +38370,12 @@
       <c r="A18" s="47">
         <v>13</v>
       </c>
-      <c r="B18" s="212"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="211" t="s">
+      <c r="B18" s="248"/>
+      <c r="C18" s="248"/>
+      <c r="D18" s="233" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="211"/>
+      <c r="E18" s="233"/>
       <c r="F18" s="56">
         <v>1</v>
       </c>
@@ -38530,14 +38404,14 @@
       <c r="A19" s="47">
         <v>14</v>
       </c>
-      <c r="B19" s="211" t="s">
+      <c r="B19" s="233" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="212"/>
-      <c r="D19" s="211" t="s">
+      <c r="C19" s="248"/>
+      <c r="D19" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="211"/>
+      <c r="E19" s="233"/>
       <c r="F19" s="56">
         <v>2</v>
       </c>
@@ -38566,12 +38440,12 @@
       <c r="A20" s="47">
         <v>15</v>
       </c>
-      <c r="B20" s="212"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="211" t="s">
+      <c r="B20" s="248"/>
+      <c r="C20" s="248"/>
+      <c r="D20" s="233" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="211"/>
+      <c r="E20" s="233"/>
       <c r="F20" s="56">
         <v>3</v>
       </c>
@@ -38600,12 +38474,12 @@
       <c r="A21" s="47">
         <v>16</v>
       </c>
-      <c r="B21" s="212"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="211" t="s">
+      <c r="B21" s="248"/>
+      <c r="C21" s="248"/>
+      <c r="D21" s="233" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="211"/>
+      <c r="E21" s="233"/>
       <c r="F21" s="56">
         <v>4</v>
       </c>
@@ -38634,14 +38508,14 @@
       <c r="A22" s="47">
         <v>17</v>
       </c>
-      <c r="B22" s="209" t="s">
+      <c r="B22" s="210" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211" t="s">
+      <c r="C22" s="209"/>
+      <c r="D22" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="211"/>
+      <c r="E22" s="233"/>
       <c r="F22" s="56">
         <v>1</v>
       </c>
@@ -38670,12 +38544,12 @@
       <c r="A23" s="47">
         <v>18</v>
       </c>
-      <c r="B23" s="210"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211" t="s">
+      <c r="B23" s="209"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="233" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="211"/>
+      <c r="E23" s="233"/>
       <c r="F23" s="56">
         <v>1</v>
       </c>
@@ -38704,16 +38578,16 @@
       <c r="A24" s="47">
         <v>19</v>
       </c>
-      <c r="B24" s="211" t="s">
+      <c r="B24" s="233" t="s">
         <v>166</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="211" t="s">
+      <c r="D24" s="233" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="211"/>
+      <c r="E24" s="233"/>
       <c r="F24" s="56">
         <v>1.5</v>
       </c>
@@ -38742,12 +38616,12 @@
       <c r="A25" s="47">
         <v>20</v>
       </c>
-      <c r="B25" s="212"/>
+      <c r="B25" s="248"/>
       <c r="C25" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="233"/>
       <c r="F25" s="56">
         <v>1</v>
       </c>
@@ -38776,12 +38650,12 @@
       <c r="A26" s="47">
         <v>21</v>
       </c>
-      <c r="B26" s="212"/>
+      <c r="B26" s="248"/>
       <c r="C26" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="211"/>
-      <c r="E26" s="211"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="233"/>
       <c r="F26" s="56">
         <v>1</v>
       </c>
@@ -38810,14 +38684,14 @@
       <c r="A27" s="47">
         <v>22</v>
       </c>
-      <c r="B27" s="212"/>
+      <c r="B27" s="248"/>
       <c r="C27" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D27" s="211" t="s">
+      <c r="D27" s="233" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="211"/>
+      <c r="E27" s="233"/>
       <c r="F27" s="56">
         <v>1.5</v>
       </c>
@@ -38846,12 +38720,12 @@
       <c r="A28" s="47">
         <v>23</v>
       </c>
-      <c r="B28" s="212"/>
+      <c r="B28" s="248"/>
       <c r="C28" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="211"/>
-      <c r="E28" s="211"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="233"/>
       <c r="F28" s="56">
         <v>1</v>
       </c>
@@ -38880,14 +38754,14 @@
       <c r="A29" s="47">
         <v>24</v>
       </c>
-      <c r="B29" s="212"/>
+      <c r="B29" s="248"/>
       <c r="C29" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="209" t="s">
+      <c r="D29" s="210" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="209"/>
+      <c r="E29" s="210"/>
       <c r="F29" s="56">
         <v>1.5</v>
       </c>
@@ -38916,14 +38790,14 @@
       <c r="A30" s="47">
         <v>25</v>
       </c>
-      <c r="B30" s="211" t="s">
+      <c r="B30" s="233" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="212"/>
-      <c r="D30" s="209" t="s">
+      <c r="C30" s="248"/>
+      <c r="D30" s="210" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="209"/>
+      <c r="E30" s="210"/>
       <c r="F30" s="56">
         <v>25</v>
       </c>
@@ -38952,12 +38826,12 @@
       <c r="A31" s="47">
         <v>26</v>
       </c>
-      <c r="B31" s="212"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="209" t="s">
+      <c r="B31" s="248"/>
+      <c r="C31" s="248"/>
+      <c r="D31" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="209"/>
+      <c r="E31" s="210"/>
       <c r="F31" s="56">
         <v>12.5</v>
       </c>
@@ -38986,14 +38860,14 @@
       <c r="A32" s="47">
         <v>27</v>
       </c>
-      <c r="B32" s="209" t="s">
+      <c r="B32" s="210" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="233" t="s">
+      <c r="C32" s="254" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="233"/>
-      <c r="E32" s="234"/>
+      <c r="D32" s="254"/>
+      <c r="E32" s="255"/>
       <c r="F32" s="56">
         <v>1</v>
       </c>
@@ -39022,12 +38896,12 @@
       <c r="A33" s="47">
         <v>28</v>
       </c>
-      <c r="B33" s="210"/>
-      <c r="C33" s="233" t="s">
+      <c r="B33" s="209"/>
+      <c r="C33" s="254" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="233"/>
-      <c r="E33" s="234"/>
+      <c r="D33" s="254"/>
+      <c r="E33" s="255"/>
       <c r="F33" s="56">
         <v>1</v>
       </c>
@@ -39056,12 +38930,12 @@
       <c r="A34" s="47">
         <v>29</v>
       </c>
-      <c r="B34" s="210"/>
-      <c r="C34" s="233" t="s">
+      <c r="B34" s="209"/>
+      <c r="C34" s="254" t="s">
         <v>180</v>
       </c>
-      <c r="D34" s="233"/>
-      <c r="E34" s="234"/>
+      <c r="D34" s="254"/>
+      <c r="E34" s="255"/>
       <c r="F34" s="56">
         <v>1</v>
       </c>
@@ -39090,12 +38964,12 @@
       <c r="A35" s="47">
         <v>30</v>
       </c>
-      <c r="B35" s="233" t="s">
+      <c r="B35" s="254" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="234"/>
-      <c r="D35" s="234"/>
-      <c r="E35" s="234"/>
+      <c r="C35" s="255"/>
+      <c r="D35" s="255"/>
+      <c r="E35" s="255"/>
       <c r="F35" s="56">
         <v>1</v>
       </c>
@@ -39122,10 +38996,10 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="280"/>
-      <c r="D36" s="280"/>
-      <c r="E36" s="280"/>
+      <c r="B36" s="269"/>
+      <c r="C36" s="270"/>
+      <c r="D36" s="270"/>
+      <c r="E36" s="270"/>
       <c r="F36" s="61"/>
       <c r="G36" s="61"/>
       <c r="H36" s="61"/>
@@ -39150,27 +39024,26 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="D24:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="AA2:AD3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C18"/>
     <mergeCell ref="D16:E16"/>
@@ -39183,26 +39056,27 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="B2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="AA2:AD3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="D24:E26"/>
+    <mergeCell ref="D27:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>

--- a/Example.xlsx
+++ b/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galushko\Documents\Home\ist_teacher_workload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04930483-DB1D-41F5-B9F3-72E9BAF120DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207E8B36-8D7F-48A0-B3FA-BD896F4C9DF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="7070" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18586,7 +18586,7 @@
   <dimension ref="A1:AI456"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:J21"/>
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -18891,8 +18891,8 @@
       <c r="R6" s="56"/>
       <c r="S6" s="56"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
       <c r="W6" s="111">
         <f>U6*коефіцієнти!$F6</f>
         <v>0</v>
@@ -18978,11 +18978,11 @@
         <f>I7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="111">
+      <c r="U7" s="112">
         <f>K7</f>
         <v>0</v>
       </c>
-      <c r="V7" s="111">
+      <c r="V7" s="112">
         <f>L7</f>
         <v>0</v>
       </c>
@@ -19063,8 +19063,8 @@
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
       <c r="W8" s="111">
         <f>U8*коефіцієнти!$F8</f>
         <v>0</v>
@@ -19142,8 +19142,8 @@
       <c r="R9" s="56"/>
       <c r="S9" s="56"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
       <c r="W9" s="111">
         <f>U9*коефіцієнти!$F9</f>
         <v>0</v>
@@ -19219,8 +19219,8 @@
       <c r="R10" s="56"/>
       <c r="S10" s="56"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
       <c r="W10" s="111">
         <f>U10*коефіцієнти!$F10</f>
         <v>0</v>
@@ -19296,8 +19296,8 @@
       <c r="R11" s="56"/>
       <c r="S11" s="56"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
       <c r="W11" s="111">
         <f>U11*коефіцієнти!$F11</f>
         <v>0</v>
@@ -19373,8 +19373,8 @@
       <c r="R12" s="56"/>
       <c r="S12" s="56"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="112"/>
       <c r="W12" s="111">
         <f>U12*коефіцієнти!$F12</f>
         <v>0</v>
@@ -19454,8 +19454,8 @@
       <c r="R13" s="56"/>
       <c r="S13" s="56"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="112"/>
       <c r="W13" s="111">
         <f>U13*коефіцієнти!$F13</f>
         <v>0</v>
@@ -19533,8 +19533,8 @@
       <c r="R14" s="56"/>
       <c r="S14" s="56"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
       <c r="W14" s="111">
         <f>U14*коефіцієнти!$F14</f>
         <v>0</v>
@@ -19612,8 +19612,8 @@
       <c r="R15" s="56"/>
       <c r="S15" s="56"/>
       <c r="T15" s="56"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
+      <c r="U15" s="112"/>
+      <c r="V15" s="112"/>
       <c r="W15" s="111">
         <f>U15*коефіцієнти!$F15</f>
         <v>0</v>
@@ -19693,8 +19693,8 @@
       <c r="R16" s="56"/>
       <c r="S16" s="56"/>
       <c r="T16" s="56"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="112"/>
       <c r="W16" s="111">
         <f>U16*коефіцієнти!$F16</f>
         <v>0</v>
@@ -19772,8 +19772,8 @@
       <c r="R17" s="56"/>
       <c r="S17" s="56"/>
       <c r="T17" s="56"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="112"/>
       <c r="W17" s="111">
         <f>U17*коефіцієнти!$F17</f>
         <v>0</v>
@@ -19851,8 +19851,8 @@
       <c r="R18" s="56"/>
       <c r="S18" s="56"/>
       <c r="T18" s="56"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="112"/>
       <c r="W18" s="111">
         <f>U18*коефіцієнти!$F18</f>
         <v>0</v>
@@ -19926,8 +19926,8 @@
       <c r="R19" s="56"/>
       <c r="S19" s="56"/>
       <c r="T19" s="56"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="112"/>
       <c r="W19" s="111"/>
       <c r="X19" s="111">
         <f t="shared" si="3"/>
@@ -19993,8 +19993,8 @@
       <c r="R20" s="56"/>
       <c r="S20" s="56"/>
       <c r="T20" s="56"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
+      <c r="U20" s="112"/>
+      <c r="V20" s="112"/>
       <c r="W20" s="111"/>
       <c r="X20" s="111">
         <f t="shared" si="3"/>
@@ -20060,8 +20060,8 @@
       <c r="R21" s="56"/>
       <c r="S21" s="56"/>
       <c r="T21" s="56"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="111"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
       <c r="W21" s="111"/>
       <c r="X21" s="111">
         <f t="shared" si="3"/>
@@ -20135,8 +20135,8 @@
       <c r="R22" s="56"/>
       <c r="S22" s="56"/>
       <c r="T22" s="56"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
       <c r="W22" s="111">
         <f>U22*коефіцієнти!$F22</f>
         <v>0</v>
@@ -20214,8 +20214,8 @@
       <c r="R23" s="56"/>
       <c r="S23" s="56"/>
       <c r="T23" s="56"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="111"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
       <c r="W23" s="111">
         <f>U23*коефіцієнти!$F23</f>
         <v>0</v>
@@ -20297,8 +20297,8 @@
       <c r="R24" s="56"/>
       <c r="S24" s="56"/>
       <c r="T24" s="56"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="111"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
       <c r="W24" s="111">
         <f>U24*коефіцієнти!$F24</f>
         <v>0</v>
@@ -20376,8 +20376,8 @@
       <c r="R25" s="56"/>
       <c r="S25" s="56"/>
       <c r="T25" s="56"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="111"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="112"/>
       <c r="W25" s="111">
         <f>U25*коефіцієнти!$F25</f>
         <v>0</v>
@@ -20455,8 +20455,8 @@
       <c r="R26" s="56"/>
       <c r="S26" s="56"/>
       <c r="T26" s="56"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="111"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
       <c r="W26" s="111">
         <f>U26*коефіцієнти!$F26</f>
         <v>0</v>
@@ -20536,8 +20536,8 @@
       <c r="R27" s="56"/>
       <c r="S27" s="56"/>
       <c r="T27" s="56"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
       <c r="W27" s="111">
         <f>U27*коефіцієнти!$F27</f>
         <v>0</v>
@@ -20615,8 +20615,8 @@
       <c r="R28" s="56"/>
       <c r="S28" s="56"/>
       <c r="T28" s="56"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
       <c r="W28" s="111">
         <f>U28*коефіцієнти!$F28</f>
         <v>0</v>
@@ -20696,8 +20696,8 @@
       <c r="R29" s="56"/>
       <c r="S29" s="56"/>
       <c r="T29" s="56"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
       <c r="W29" s="111">
         <f>U29*коефіцієнти!$F29</f>
         <v>0</v>
@@ -20777,8 +20777,8 @@
       <c r="R30" s="56"/>
       <c r="S30" s="56"/>
       <c r="T30" s="56"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="112"/>
       <c r="W30" s="111">
         <f>U30*коефіцієнти!$F30</f>
         <v>0</v>
@@ -20856,8 +20856,8 @@
       <c r="R31" s="56"/>
       <c r="S31" s="56"/>
       <c r="T31" s="56"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
       <c r="W31" s="111">
         <f>U31*коефіцієнти!$F31</f>
         <v>0</v>
@@ -20937,8 +20937,8 @@
       <c r="R32" s="56"/>
       <c r="S32" s="56"/>
       <c r="T32" s="56"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
       <c r="W32" s="111">
         <f>U32*коефіцієнти!$F32</f>
         <v>0</v>
@@ -21016,8 +21016,8 @@
       <c r="R33" s="56"/>
       <c r="S33" s="56"/>
       <c r="T33" s="56"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="112"/>
       <c r="W33" s="111">
         <f>U33*коефіцієнти!$F33</f>
         <v>0</v>
@@ -21095,8 +21095,8 @@
       <c r="R34" s="56"/>
       <c r="S34" s="56"/>
       <c r="T34" s="56"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="111"/>
+      <c r="U34" s="112"/>
+      <c r="V34" s="112"/>
       <c r="W34" s="111">
         <f>U34*коефіцієнти!$F34</f>
         <v>0</v>
@@ -21174,8 +21174,8 @@
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
       <c r="T35" s="56"/>
-      <c r="U35" s="111"/>
-      <c r="V35" s="111"/>
+      <c r="U35" s="112"/>
+      <c r="V35" s="112"/>
       <c r="W35" s="111">
         <f>U35*коефіцієнти!$F35</f>
         <v>0</v>
@@ -21259,11 +21259,11 @@
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
       <c r="T36" s="56"/>
-      <c r="U36" s="111">
+      <c r="U36" s="112">
         <f>SUM(U6:U35)</f>
         <v>0</v>
       </c>
-      <c r="V36" s="111">
+      <c r="V36" s="112">
         <f t="shared" ref="V36:AD36" si="10">SUM(V6:V35)</f>
         <v>0</v>
       </c>
